--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -2707,8 +2707,8 @@
   <dimension ref="A2:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="221">
   <si>
     <t>time for upload</t>
   </si>
@@ -948,6 +948,23 @@
   </si>
   <si>
     <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Share a Qrcode and scan</t>
+  </si>
+  <si>
+    <t>1. Choose place media as the category
+2. Capture an image and save
+3.  Select QR code to 'Identify media to link' 
+4. The barcode scanner opens.
+5. Select the share option in the scanner
+6. Enter a QRcode value
+7. Share the Qrcode image that gets generated (watsap, mail etc)
+8. scan the shared QRcode</t>
+  </si>
+  <si>
+    <t>1. If it is a valid QR code, the linked media must be retirved and displayed in link monitor.
+2. If the selected value of qrcode is not linked to any media, then the app must display a message 'The qrcode is not linked to any media. You want to link itnow.....'</t>
   </si>
 </sst>
 </file>
@@ -2704,11 +2721,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I76"/>
+  <dimension ref="A2:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,49 +3123,49 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="29" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="C29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>27</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="C32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>182</v>
@@ -3157,443 +3174,455 @@
     <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="C33" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
-        <v>29</v>
-      </c>
+      <c r="A34" s="16"/>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
+        <v>32</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>33</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>34</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
-        <v>35</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>36</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>37</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="C43" s="2" t="s">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="C44" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
-        <v>38</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
-        <v>43</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <v>45</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
+        <v>45</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
         <v>46</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
         <v>47</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
         <v>51</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>52</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
-        <v>53</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
+        <v>53</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
         <v>54</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <v>55</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
         <v>57</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
         <v>58</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
-        <v>59</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
+        <v>59</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
         <v>60</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
         <v>61</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
-        <v>62</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
+        <v>62</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
         <v>63</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
         <v>64</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
-        <v>65</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
+        <v>65</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
         <v>66</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
         <v>67</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
         <v>68</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
-        <v>69</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>69</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
         <v>70</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
         <v>71</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G66">
       <formula1>"Pass, Fail, clarification"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
-    <sheet name="20 mar15" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="20 mar15" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20 mar15'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -58,7 +58,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0">
+    <comment ref="F45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="231">
   <si>
     <t>time for upload</t>
   </si>
@@ -965,6 +965,47 @@
   <si>
     <t>1. If it is a valid QR code, the linked media must be retirved and displayed in link monitor.
 2. If the selected value of qrcode is not linked to any media, then the app must display a message 'The qrcode is not linked to any media. You want to link itnow.....'</t>
+  </si>
+  <si>
+    <t>Password change</t>
+  </si>
+  <si>
+    <t>1. The user must not be able to login in using old password
+2. User must be able to login using the new password</t>
+  </si>
+  <si>
+    <t>1. Change the password of a account in the account settings in the web application.
+2. Try to login with the old &amp; new password in the monitor app</t>
+  </si>
+  <si>
+    <t>Four scenarios of Manish
+1. WithGPS on and dataconn off
+2. With GPS on and dataconn on
+3. With GPS off + signal
+4, No Signal
+5. NO signal + GPS on</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user captureupload, logout
+dashboard count in both the account should not interchange</t>
+  </si>
+  <si>
+    <t>photos in the app and the photos in the phone verifying count</t>
+  </si>
+  <si>
+    <t>Delete the account folder in the phone and check the app functionality</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user captureupload, logout
+In the app folder in the phone, separate folders for different accounts must be created</t>
+  </si>
+  <si>
+    <t>replace the imagein the account folder with another image with same name and check</t>
+  </si>
+  <si>
+    <t>capture in landscape mode</t>
   </si>
 </sst>
 </file>
@@ -2720,12 +2761,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I77"/>
+  <dimension ref="A2:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,79 +2880,77 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16" t="s">
-        <v>116</v>
-      </c>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C5" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>137</v>
@@ -2874,310 +2958,312 @@
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>17</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+    <row r="22" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>21</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>22</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="C25" s="17" t="s">
+    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="C26" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+    <row r="29" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D29" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="C29" s="2" t="s">
+    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="C30" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>27</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
         <v>28</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="C33" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>182</v>
@@ -3186,443 +3272,489 @@
     <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="C34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>29</v>
-      </c>
+      <c r="A35" s="16"/>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>30</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>31</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
+        <v>32</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>33</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>34</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
-        <v>35</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
+        <v>35</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>36</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>37</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="C44" s="2" t="s">
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="C45" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
-        <v>43</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
-        <v>45</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
+        <v>45</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
         <v>46</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>51</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
         <v>52</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
-        <v>53</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <v>54</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
         <v>55</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
         <v>56</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
         <v>57</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>58</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
-        <v>59</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
+        <v>59</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
         <v>60</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
         <v>61</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
-        <v>62</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
+        <v>62</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
         <v>63</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
         <v>64</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
-        <v>65</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
+        <v>65</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
         <v>66</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
         <v>67</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
         <v>68</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
-        <v>69</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>69</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
         <v>70</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
         <v>71</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
         <v>72</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="D79" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G67">
       <formula1>"Pass, Fail, clarification"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3630,49 +3762,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="250">
   <si>
     <t>time for upload</t>
   </si>
@@ -143,24 +143,12 @@
     <t xml:space="preserve"> out of networkhandling check</t>
   </si>
   <si>
-    <t>using wifi message</t>
-  </si>
-  <si>
     <t>Category selected</t>
   </si>
   <si>
     <t>gps enable message display check</t>
   </si>
   <si>
-    <t>gps enabling cofirmation</t>
-  </si>
-  <si>
-    <t>gps skip confirmation</t>
-  </si>
-  <si>
-    <t>continues without a issue</t>
-  </si>
-  <si>
     <t>type of identifying media</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
   </si>
   <si>
     <t>loading messages</t>
-  </si>
-  <si>
-    <t>takes to gps enabling screen</t>
   </si>
   <si>
     <t>street</t>
@@ -484,9 +469,6 @@
     <t>Exit the app on different screens using menu button, return back to app and check</t>
   </si>
   <si>
-    <t>capture all 5 images, delete all, retake and save</t>
-  </si>
-  <si>
     <t>Try capturing an image at 11.45am/pm, keep it captured folder, upload it after 12am/pm</t>
   </si>
   <si>
@@ -1006,6 +988,115 @@
   </si>
   <si>
     <t>capture in landscape mode</t>
+  </si>
+  <si>
+    <t>Check whether the 'improve your location' message is displayed:
+1. On clicking the capture button
+2.On selecting 'Auto' option while identifying media in the image preview screen (for all categories)</t>
+  </si>
+  <si>
+    <t>Must take the user to the location settings screen of the phone</t>
+  </si>
+  <si>
+    <t>Choose 'enable' option in GPS message</t>
+  </si>
+  <si>
+    <t>Must continue to next step without a issue</t>
+  </si>
+  <si>
+    <t>Skip' option in GPS message</t>
+  </si>
+  <si>
+    <t>Wifi enable message</t>
+  </si>
+  <si>
+    <t>Check whether the 'improve accuracy message' is displayed:
+With gps disabled in the phone
+1. On clicking the capture button
+2.On selecting 'Auto' option while identifying media in the image preview screen (for all categories)</t>
+  </si>
+  <si>
+    <t>With gps disabled in the phone
+1. Click the capture button, encounter the 'improve the accuracy message'
+2. Select 'Enable' option in the message</t>
+  </si>
+  <si>
+    <t>With gps disabled in the phone
+1. Select 'Auto' option while identifying media in the image preview screen (for all categories)
+2. Encounter the 'improve accuracy message'
+3. Select 'Enable' option in the message</t>
+  </si>
+  <si>
+    <t>With gps disabled in the phone
+1. Click the capture button, encounter the 'improve the accuracy message'
+2. Select 'Skip' option in the message</t>
+  </si>
+  <si>
+    <t>With gps disabled in the phone
+1. Select 'Auto' option while identifying media in the image preview screen (for all categories)
+2. Encounter the 'improve accuracy message'
+3. Select 'Skip' option in the message</t>
+  </si>
+  <si>
+    <t>Choose 'enable' option in wifi message</t>
+  </si>
+  <si>
+    <t>The user must be taken to the phone's Wi-Fi settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'improve your location' message is displayed</t>
+  </si>
+  <si>
+    <t>Skip' option wifi message</t>
+  </si>
+  <si>
+    <t>The choose category menu must appear</t>
+  </si>
+  <si>
+    <t>Skip' option in Wifi message</t>
+  </si>
+  <si>
+    <t>The app must try to retrieve medias, the 'identifying medias loading message must appear.</t>
+  </si>
+  <si>
+    <t>With wifi disabled in the phone
+1. Click the capture button, encounter the 'improve your location' message
+2. Select 'Enable' option in the message</t>
+  </si>
+  <si>
+    <t>With wifi disabled in the phone
+1. Select 'Auto' option while identifying media in the image preview screen (for all categories)
+2. 'improve your location' message appears
+3. Select 'Enable' option in the message</t>
+  </si>
+  <si>
+    <t>With wifi disabled in the phone
+1. Click the capture button, 'improve your location' message appears
+2. Select 'Skip' option in the message</t>
+  </si>
+  <si>
+    <t>With wifi disabled in the phone
+1. Select 'Auto' option while identifying media in the image preview screen (for all categories)
+2.  'improve your location' message appears
+3. Select 'Skip' option in the message</t>
+  </si>
+  <si>
+    <t>Check for incoming calls handling on the following screen:
+ 1. Dashboard
+2. Camera screen
+3. Image saving screen
+4. Image preview screen
+5. Loading screens
+6. Link Monitor screen</t>
+  </si>
+  <si>
+    <t>Enter other account media ID</t>
+  </si>
+  <si>
+    <t>1. Capture an image and save
+2. Click 'Identify media to link' button
+3. Select 'Manual' option 
+4. Enter other accounts (valid) media ID in the input field</t>
   </si>
 </sst>
 </file>
@@ -1551,31 +1642,31 @@
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>7</v>
@@ -1587,62 +1678,62 @@
         <v>0</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="T1" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2"/>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="R2" s="3"/>
       <c r="T2" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U2" s="5"/>
     </row>
@@ -1651,37 +1742,37 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="3"/>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="U3" s="3"/>
     </row>
@@ -1690,40 +1781,40 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="T4" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -1731,35 +1822,35 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R5" s="3"/>
       <c r="T5" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -1773,42 +1864,42 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R6" s="3"/>
       <c r="T6" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U6" s="3"/>
     </row>
@@ -1823,44 +1914,44 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L7" s="3">
         <v>24</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="T7" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1888,10 +1979,10 @@
       <c r="R8" s="15"/>
       <c r="S8" s="13"/>
       <c r="T8" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
@@ -1905,28 +1996,28 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J9" s="3">
         <v>10</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="R9" s="3"/>
       <c r="T9" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U9" s="5"/>
     </row>
@@ -1941,13 +2032,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3">
         <v>10</v>
@@ -1959,26 +2050,26 @@
         <v>1</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U10" s="5"/>
     </row>
@@ -1987,13 +2078,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2005,25 +2096,25 @@
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U11" s="5"/>
     </row>
@@ -2038,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2053,23 +2144,23 @@
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R12" s="3"/>
       <c r="T12" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U12" s="5"/>
     </row>
@@ -2078,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -2098,10 +2189,10 @@
       <c r="R13" s="12"/>
       <c r="S13" s="10"/>
       <c r="T13" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -2109,37 +2200,37 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R14" s="3"/>
       <c r="T14" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="U14" s="5"/>
     </row>
@@ -2154,17 +2245,17 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
@@ -2776,18 +2867,18 @@
   <sheetData>
     <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -2796,7 +2887,7 @@
     </row>
     <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2807,11 +2898,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I84"/>
+  <dimension ref="A2:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,31 +2920,31 @@
   <sheetData>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2861,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2873,888 +2964,1031 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
       <c r="C5" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>21</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>171</v>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>24</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F25" s="2" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="C26" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="C30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="C34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="C35" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>39</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>40</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>42</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>45</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>46</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>47</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>48</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="17" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>49</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>31</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
-        <v>32</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
-        <v>33</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
-        <v>34</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
-        <v>35</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
-        <v>36</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
-        <v>37</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="C45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <v>38</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>39</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
-        <v>40</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
-        <v>42</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
-        <v>43</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
-        <v>44</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
-        <v>45</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
-        <v>46</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
-        <v>47</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
-        <v>54</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
-        <v>55</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>62</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>63</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>64</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>65</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>66</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>67</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>68</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>69</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>70</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>71</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>72</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>73</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>74</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
-        <v>59</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
-        <v>60</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
-        <v>61</v>
-      </c>
-      <c r="D67" s="4" t="s">
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
-        <v>62</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
-        <v>63</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
-        <v>64</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="D83" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
-        <v>65</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
-        <v>66</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
-        <v>67</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
-        <v>68</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
-        <v>69</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
-        <v>70</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
-        <v>71</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
-        <v>72</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="D79" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="D80" s="2" t="s">
+      <c r="D84" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>82</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>83</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>84</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>85</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>86</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>87</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>88</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G74">
       <formula1>"Pass, Fail, clarification"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -10,6 +10,7 @@
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="20 mar15" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$2</definedName>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="266">
   <si>
     <t>time for upload</t>
   </si>
@@ -516,11 +517,6 @@
     <t>The app should return an error asking for valid input</t>
   </si>
   <si>
-    <t>1. Enter invalid Id and valid pasword
-2. Enter valid ID and invalid password
-3. Enter only characters / numbers</t>
-  </si>
-  <si>
     <t>The user must login and must be able to access only buyer details</t>
   </si>
   <si>
@@ -552,9 +548,6 @@
   </si>
   <si>
     <t>Test Status</t>
-  </si>
-  <si>
-    <t>1. Enter valid ID and Password</t>
   </si>
   <si>
     <t>Choose category menu should open up</t>
@@ -924,9 +917,6 @@
 3.  Select QR code to 'Identify media to link' 
 4. The barcode scanner opens.
 5. Scan a QR code whose value is not present in the database. (ex: 300000) (use QRcode generator)</t>
-  </si>
-  <si>
-    <t>The app must display a message 'The qrcode is not linked to any media. You want to link itnow.....'</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -960,19 +950,6 @@
 2. Try to login with the old &amp; new password in the monitor app</t>
   </si>
   <si>
-    <t>Four scenarios of Manish
-1. WithGPS on and dataconn off
-2. With GPS on and dataconn on
-3. With GPS off + signal
-4, No Signal
-5. NO signal + GPS on</t>
-  </si>
-  <si>
-    <t>Login as one user, capture upload, logout
-Login as second user captureupload, logout
-dashboard count in both the account should not interchange</t>
-  </si>
-  <si>
     <t>photos in the app and the photos in the phone verifying count</t>
   </si>
   <si>
@@ -1098,12 +1075,116 @@
 3. Select 'Manual' option 
 4. Enter other accounts (valid) media ID in the input field</t>
   </si>
+  <si>
+    <t>1. Enter invalid Id and valid pasword
+2. Enter valid ID and invalid password
+3. Enter only characters / numbers
+4. Enter valid ID of one account and valid password of an another account</t>
+  </si>
+  <si>
+    <t>1. Enter valid ID and corresponding Password</t>
+  </si>
+  <si>
+    <t>check on next build able to retrieve abc account media 14710 for info account</t>
+  </si>
+  <si>
+    <t>The app must return a message informing that this is a incorrect Qrcode</t>
+  </si>
+  <si>
+    <t>1. Select Capture&gt; choose indoor media category&gt; click image&gt; save
+2. Select 'QR code' option to identify media to link.
+3. Bar scanner will open
+4. In the system, open qrcode generator website
+5. Type any assigned value but not linked to any medias and get the corresponding Qrcode
+6. Use the bar scanner to scan the Qrcode
+6. The following message appears: "This QRcode is not linked to any media. You want to link it now or upload without linking "
+7. Select 'identify media' option in the message
+8. Mall Media type selection menu appears
+9. Select any floor and media type</t>
+  </si>
+  <si>
+    <t>Checkif linked medias are retrieved into link monitor</t>
+  </si>
+  <si>
+    <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
+Only unlinked medias (with default QRcode value '0') must be retrieved into the link monitor screen</t>
+  </si>
+  <si>
+    <t>1. Select Capture&gt; choose indoor media as category&gt; click image&gt; save
+2. Select 'QR code' option to identify media to link.
+3. Bar scanner will open
+4. In the system, open qrcode generator website
+5. Type any unassigned value (ex:3000) and get the corresponding Qrcode
+6. Use the bar scanner to scan the Qrcode</t>
+  </si>
+  <si>
+    <t>Since the scanned QRcode is not assigned to the account, the app must display a message informing that the Qrcode that was scanned was incorrect.</t>
+  </si>
+  <si>
+    <t>The medias with default value '0' is retrieved on scaning a QRcode of '0'.</t>
+  </si>
+  <si>
+    <t>1. Select Capture&gt; choose indoor media category&gt; click image&gt; save
+2. Select 'QR code' option to identify media to link.
+3. Bar scanner will open
+4. In the system(pc), open qrcode generator website
+5. Type '0' and get the corresponding Qrcode
+6. Use the bar scanner to scan the Qrcode</t>
+  </si>
+  <si>
+    <t>The app must not retrieve any media as '0' is not a assigned QRcode and it is just a default value given to the medias without a QRcode.
+The app must generate appropriate error message informing that the QRcode that was scanned was an incorrect one.</t>
+  </si>
+  <si>
+    <t>In the web app, assign same QR code to multiple medias and check for validation</t>
+  </si>
+  <si>
+    <t>One QR code must not get assigned to multiple medias</t>
+  </si>
+  <si>
+    <t>1. Select Capture&gt; choose indoor media as category&gt; click image&gt; save
+2. Select 'QR code' option to identify media to link.
+3. In qrcode generator website, type any assigned value but not linked to any medias and get the corresponding Qrcode
+4. Use the bar scanner to scan the Qrcode
+5. The following message appears: "This QRcode is not linked to any media. You want to link it now or upload without linking "
+7. Select 'upload without linking' option in the message and upload the monitor.
+8. In the web application link a media to the above monitor.
+9. repeat steps 1 and 2
+10. assign same value for Qr code as entered in step 3 and scan</t>
+  </si>
+  <si>
+    <t>linked media must be retrieved and displayed in the link monitor</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user captureupload, logout
+dashboard count in both the account should not interchange on logging in</t>
+  </si>
+  <si>
+    <t>Login as one user&gt; capture&gt; upload&gt; logout
+Login as second user&gt; capture&gt; upload&gt; logout
+In the web application, respective monitor must be uploaded correctly. No Mix up of monitors must happen</t>
+  </si>
+  <si>
+    <t>Info account</t>
+  </si>
+  <si>
+    <t>monitor account</t>
+  </si>
+  <si>
+    <t>scenarios for manual, auto and QRcode
+1. WithGPS on and dataconn off
+2. With GPS on and dataconn on
+3. With GPS off + signal
+4, No Signal
+5. NO signal + GPS on</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,6 +1238,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1256,7 +1345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1306,6 +1395,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2898,11 +2993,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I91"/>
+  <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +3005,7 @@
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="4" customWidth="1"/>
@@ -2920,31 +3015,31 @@
   <sheetData>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,19 +3047,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
@@ -2976,14 +3071,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2995,7 +3090,7 @@
         <v>110</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3007,7 +3102,7 @@
         <v>111</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3018,10 +3113,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3029,13 +3124,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3044,10 +3139,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3055,13 +3150,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3072,10 +3167,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3083,13 +3178,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -3097,13 +3192,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3111,13 +3206,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -3125,30 +3220,30 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3156,138 +3251,141 @@
         <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>23</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>25</v>
       </c>
@@ -3295,27 +3393,27 @@
         <v>82</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>27</v>
       </c>
@@ -3323,672 +3421,732 @@
         <v>114</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="C33" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="C35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>226</v>
+        <v>175</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>39</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>40</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
-        <v>39</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
-        <v>40</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
-        <v>45</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
-        <v>46</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
-        <v>47</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <v>48</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>45</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>46</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>47</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>48</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
         <v>50</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
         <v>51</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
         <v>52</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
         <v>53</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
         <v>54</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
         <v>55</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>56</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
-        <v>57</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
-        <v>58</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
-        <v>59</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
-        <v>60</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
-        <v>61</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
-        <v>62</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>242</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
-        <v>65</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
-        <v>66</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>194</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
-        <v>71</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
-        <v>74</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>107</v>
+        <v>69</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
+        <v>70</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>71</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>72</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>73</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>74</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
         <v>75</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
         <v>76</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
-        <v>77</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="16">
-        <v>78</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
-        <v>79</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
-        <v>80</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
-        <v>81</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
+        <v>78</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>80</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>81</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>82</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
         <v>83</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
+      <c r="D91" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="D92" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
         <v>84</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>85</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>86</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>87</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
-        <v>85</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
-        <v>86</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
-        <v>87</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
         <v>88</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>224</v>
+      <c r="D97" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G79">
       <formula1>"Pass, Fail, clarification"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3996,4 +4154,38 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -2996,8 +2996,8 @@
   <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="314">
   <si>
     <t>time for upload</t>
   </si>
@@ -733,11 +733,6 @@
 3. Select 'auto' option</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifying media message must appear and the app must retrieve all the media available with the account and display it in the Link monitor screen.
-The user must be able to check and uncheck the medias checkboxes
-</t>
-  </si>
-  <si>
     <t>1. Capture an image and save
 2. Click 'Identify media to link' button
 3. Select 'auto' option
@@ -1166,18 +1161,202 @@
 In the web application, respective monitor must be uploaded correctly. No Mix up of monitors must happen</t>
   </si>
   <si>
-    <t>Info account</t>
-  </si>
-  <si>
-    <t>monitor account</t>
-  </si>
-  <si>
     <t>scenarios for manual, auto and QRcode
 1. WithGPS on and dataconn off
 2. With GPS on and dataconn on
 3. With GPS off + signal
 4, No Signal
 5. NO signal + GPS on</t>
+  </si>
+  <si>
+    <t>Mobile data</t>
+  </si>
+  <si>
+    <t>QR code network scenarios tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal </t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Switched Off</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>QR status</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Switched On</t>
+  </si>
+  <si>
+    <t>Manul</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying media message must appear and the app must retrieve the mall media type menu and on selection display all available with the account and display it in the Link monitor screen.
+The user must be able to check and uncheck the medias checkboxes
+</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>dataconn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on </t>
+  </si>
+  <si>
+    <t>wd cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wd cache </t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Fresh try</t>
+  </si>
+  <si>
+    <t>Mall is not detected</t>
+  </si>
+  <si>
+    <t>user has to go to google maps and his location must get updated on the device</t>
+  </si>
+  <si>
+    <t>mall media type menu retrival fast</t>
+  </si>
+  <si>
+    <t>media retrieval 10 -15sec</t>
+  </si>
+  <si>
+    <t>upload without linking checked</t>
+  </si>
+  <si>
+    <t>multiple medias linkingchecked</t>
+  </si>
+  <si>
+    <t>Even though gps and wifi is off, the location of the monitor is updated correctly and the location icon in both app and web shows updated</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>observations- fine</t>
+  </si>
+  <si>
+    <t>Result -fine</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>on saying auto link, it says identifying media, when it cannot locate a mall, the loading message just disappears without any message to user</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>First try</t>
+  </si>
+  <si>
+    <t>with cache</t>
+  </si>
+  <si>
+    <t>not able to retrive the mall at all
+on saying auto link, it says identifying media, when it cannot locate a mall, the loading message just disappears without any message to user</t>
+  </si>
+  <si>
+    <t>mall media type menu retrival fast, m
+edia retrieval 10 -15sec
+Even though gps and wifi is off, the location of the monitor is updated correctly and the location icon in both app and web shows updated</t>
+  </si>
+  <si>
+    <r>
+      <t>not able to retrive the mall at all
+on selecting auto link,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it says identifying media, when it cannot locate a mall, the loading message just disappears without any message to user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Switching On wifi and gps is a must to retrieve</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mall is not detected
+user has to 
+1. go to google maps and his location must get updated on the device
+2. after that user has to logout and login the app for the mall media type menu to appear </t>
+  </si>
+  <si>
+    <t>working fine</t>
+  </si>
+  <si>
+    <t>Cannot retrieve 
+WIFI , GPS should be  enabled Mandatory (coz for gps to update ur location correctly it says wifi must be enabled)</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>On selecting auto option ….enable data connection messageappears</t>
+  </si>
+  <si>
+    <t>user has to 
+1. go to google maps and his location must get updated on the device
+2. after that user has to logout and login the app for the mall media type menu to appear 
+Media type mall appears quickly
+Retrieval of medias take arnd 45 secs</t>
+  </si>
+  <si>
+    <t>medias retrieval takes a minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,6 +1455,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1396,10 +1593,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1707,8 +1929,8 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,9 +3217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3255,7 @@
         <v>122</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>123</v>
@@ -3047,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>115</v>
@@ -3059,7 +3281,7 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
@@ -3071,14 +3293,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3195,13 +3417,13 @@
         <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3215,7 +3437,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3291,7 +3513,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>165</v>
@@ -3303,16 +3525,16 @@
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="C22" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>159</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,7 +3548,7 @@
         <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3350,10 +3572,11 @@
       <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3365,10 +3588,10 @@
         <v>168</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -3376,13 +3599,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="F27" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3393,10 +3616,10 @@
         <v>82</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -3404,13 +3627,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -3421,24 +3644,24 @@
         <v>114</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="F31" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -3446,70 +3669,70 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="C33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="C35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>30</v>
       </c>
@@ -3517,49 +3740,49 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>34</v>
       </c>
@@ -3567,94 +3790,98 @@
         <v>83</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D44" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>39</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>40</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>41</v>
       </c>
@@ -3663,18 +3890,18 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3682,13 +3909,13 @@
         <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3696,27 +3923,27 @@
         <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D52" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>45</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3724,13 +3951,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,10 +3977,10 @@
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3761,30 +3988,34 @@
         <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>50</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>51</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>90</v>
       </c>
@@ -3794,7 +4025,9 @@
       <c r="A60" s="16">
         <v>52</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>87</v>
       </c>
@@ -3804,7 +4037,9 @@
       <c r="A61" s="16">
         <v>53</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>88</v>
       </c>
@@ -3814,7 +4049,9 @@
       <c r="A62" s="16">
         <v>54</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>89</v>
       </c>
@@ -3852,7 +4089,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3863,10 +4100,10 @@
         <v>44</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3920,19 +4157,19 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,7 +4181,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>67</v>
       </c>
@@ -3973,7 +4210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>70</v>
       </c>
@@ -3997,7 +4234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>73</v>
       </c>
@@ -4039,7 +4276,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>78</v>
       </c>
@@ -4078,7 +4315,7 @@
         <v>113</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4086,7 +4323,7 @@
         <v>82</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4094,13 +4331,13 @@
         <v>83</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="D92" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4108,7 +4345,7 @@
         <v>84</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,7 +4353,7 @@
         <v>85</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,7 +4361,7 @@
         <v>86</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4132,7 +4369,7 @@
         <v>87</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,7 +4377,7 @@
         <v>88</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4158,34 +4395,605 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" customWidth="1"/>
+    <col min="14" max="14" width="45.5703125" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" customWidth="1"/>
+    <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
+      <c r="E2" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" t="s">
+        <v>297</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+    </row>
+    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M5" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>273</v>
+      </c>
+      <c r="R5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L6" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P6" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>285</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>285</v>
+      </c>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="N11" t="s">
+        <v>295</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="R11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L12" t="s">
+        <v>265</v>
+      </c>
+      <c r="M12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>273</v>
+      </c>
+      <c r="R12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L13" t="s">
+        <v>279</v>
+      </c>
+      <c r="M13" t="s">
+        <v>278</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L14" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" t="s">
+        <v>281</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="D21:I21"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D95">
+      <formula1>"On, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20 E22:E35">
+      <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F174 F3:F20 G19:G20 G22:G174">
+      <formula1>"ON, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20 H22:H215">
+      <formula1>"Assigned and linked, assigned and not linked, unassigned"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -1615,14 +1615,14 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4398,8 +4398,8 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,6 +4444,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -4467,6 +4470,9 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -4485,7 +4491,7 @@
       <c r="G4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="36" t="s">
         <v>303</v>
       </c>
       <c r="L4" t="s">
@@ -4498,6 +4504,9 @@
       <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -4539,6 +4548,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -4580,6 +4592,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -4617,7 +4632,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -4643,7 +4658,7 @@
     </row>
     <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -4669,7 +4684,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -4695,7 +4710,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -4733,7 +4748,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>309</v>
@@ -4777,7 +4792,7 @@
     </row>
     <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>309</v>
@@ -4818,7 +4833,7 @@
     </row>
     <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>308</v>
@@ -4856,7 +4871,7 @@
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>309</v>
@@ -4882,7 +4897,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>309</v>
@@ -4908,7 +4923,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>309</v>
@@ -4934,7 +4949,7 @@
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>309</v>
@@ -4967,12 +4982,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4983,13 +4998,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D95">
       <formula1>"On, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20 E22:E35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E35 E3:E20">
       <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F174 F3:F20 G19:G20 G22:G174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G174 G19:G20 F3:F20">
       <formula1>"ON, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20 H22:H215">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H215 H3:H20">
       <formula1>"Assigned and linked, assigned and not linked, unassigned"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -1542,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1593,18 +1593,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1624,6 +1614,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -3217,9 +3221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,7 +3272,7 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="35" t="s">
         <v>245</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -3280,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="36" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="17"/>
@@ -3295,7 +3299,7 @@
       <c r="C5" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="36" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="17"/>
@@ -3308,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="35" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -3320,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="35" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -3334,7 +3338,7 @@
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="35" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -3348,7 +3352,7 @@
       <c r="C9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="37" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3360,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="37" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3374,7 +3378,7 @@
       <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="37" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3388,7 +3392,7 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="37" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3402,7 +3406,7 @@
       <c r="C13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="37" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -3416,7 +3420,7 @@
       <c r="C14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="37" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3430,7 +3434,7 @@
       <c r="C15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="37" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3444,7 +3448,7 @@
       <c r="C16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="37" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -3458,7 +3462,7 @@
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="37" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -3472,7 +3476,7 @@
       <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="37" t="s">
         <v>150</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3486,7 +3490,7 @@
       <c r="C19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="37" t="s">
         <v>162</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3500,7 +3504,7 @@
       <c r="C20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="38" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="19"/>
@@ -3515,7 +3519,7 @@
       <c r="C21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="36" t="s">
         <v>165</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -3527,7 +3531,7 @@
       <c r="C22" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="36" t="s">
         <v>243</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -3544,7 +3548,7 @@
       <c r="C23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="36" t="s">
         <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3558,7 +3562,7 @@
       <c r="C24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="36" t="s">
         <v>167</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3572,11 +3576,11 @@
       <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="27" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="17" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3587,7 +3591,7 @@
       <c r="C26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="36" t="s">
         <v>170</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3601,7 +3605,7 @@
       <c r="C27" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="36" t="s">
         <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3615,7 +3619,7 @@
       <c r="C28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="36" t="s">
         <v>198</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3629,7 +3633,7 @@
       <c r="C29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="36" t="s">
         <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3643,7 +3647,7 @@
       <c r="C30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="36" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3657,7 +3661,7 @@
       <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="36" t="s">
         <v>209</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3671,7 +3675,7 @@
       <c r="C32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="36" t="s">
         <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3683,7 +3687,7 @@
       <c r="C33" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="37" t="s">
         <v>248</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3693,7 +3697,7 @@
     <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="37" t="s">
         <v>251</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3705,7 +3709,7 @@
       <c r="C35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="37" t="s">
         <v>254</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3715,7 +3719,7 @@
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="37" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3725,7 +3729,7 @@
     <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="37" t="s">
         <v>258</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3736,7 +3740,7 @@
       <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="37" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3747,7 +3751,7 @@
       <c r="C39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="37" t="s">
         <v>175</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -3761,7 +3765,7 @@
       <c r="C40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="37" t="s">
         <v>174</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -3775,7 +3779,7 @@
       <c r="C41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="37" t="s">
         <v>176</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3789,7 +3793,7 @@
       <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="37" t="s">
         <v>179</v>
       </c>
       <c r="F42" s="20" t="s">
@@ -3803,11 +3807,11 @@
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="27" t="s">
         <v>182</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -3821,7 +3825,7 @@
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="37" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3832,7 +3836,7 @@
       <c r="C45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="37" t="s">
         <v>226</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3846,7 +3850,7 @@
       <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="37" t="s">
         <v>227</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -3860,7 +3864,7 @@
       <c r="C47" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="37" t="s">
         <v>228</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -3874,7 +3878,7 @@
       <c r="C48" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="37" t="s">
         <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3885,7 +3889,7 @@
       <c r="A49" s="16">
         <v>41</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="2"/>
@@ -3897,7 +3901,7 @@
       <c r="C50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="37" t="s">
         <v>219</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3911,7 +3915,7 @@
       <c r="C51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="37" t="s">
         <v>237</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -3925,7 +3929,7 @@
       <c r="C52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="37" t="s">
         <v>238</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -3939,7 +3943,7 @@
       <c r="C53" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="37" t="s">
         <v>239</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -3953,7 +3957,7 @@
       <c r="C54" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="37" t="s">
         <v>240</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -3964,7 +3968,7 @@
       <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="2"/>
@@ -3976,7 +3980,7 @@
       <c r="C56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="37" t="s">
         <v>184</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -3990,7 +3994,7 @@
       <c r="C57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="37" t="s">
         <v>186</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -4004,7 +4008,7 @@
       <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="37" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
@@ -4016,7 +4020,7 @@
       <c r="C59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="2"/>
@@ -4028,7 +4032,7 @@
       <c r="C60" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="37" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="2"/>
@@ -4040,7 +4044,7 @@
       <c r="C61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E61" s="2"/>
@@ -4052,7 +4056,7 @@
       <c r="C62" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="37" t="s">
         <v>89</v>
       </c>
       <c r="E62" s="2"/>
@@ -4061,7 +4065,7 @@
       <c r="A63" s="16">
         <v>55</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="37" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="2"/>
@@ -4070,14 +4074,14 @@
       <c r="A64" s="16">
         <v>56</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>57</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4088,7 +4092,7 @@
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="37" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4099,7 +4103,7 @@
       <c r="C67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="37" t="s">
         <v>188</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -4110,7 +4114,7 @@
       <c r="A68" s="16">
         <v>60</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="37" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="2"/>
@@ -4122,7 +4126,7 @@
       <c r="A69" s="16">
         <v>61</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="37" t="s">
         <v>81</v>
       </c>
       <c r="E69" s="2"/>
@@ -4132,7 +4136,7 @@
       <c r="A70" s="16">
         <v>62</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="2"/>
@@ -4142,7 +4146,7 @@
       <c r="A71" s="16">
         <v>63</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="37" t="s">
         <v>85</v>
       </c>
       <c r="F71" s="2"/>
@@ -4151,7 +4155,7 @@
       <c r="A72" s="16">
         <v>64</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="37" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="2"/>
@@ -4164,7 +4168,7 @@
       <c r="C73" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="37" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="2"/>
@@ -4177,7 +4181,7 @@
         <v>66</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
@@ -4185,7 +4189,7 @@
       <c r="A75" s="16">
         <v>67</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="37" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="2"/>
@@ -4194,7 +4198,7 @@
       <c r="A76" s="16">
         <v>68</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="37" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="2"/>
@@ -4206,7 +4210,7 @@
       <c r="A77" s="16">
         <v>69</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="37" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4214,7 +4218,7 @@
       <c r="A78" s="16">
         <v>70</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="37" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4222,7 +4226,7 @@
       <c r="A79" s="16">
         <v>71</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="40" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4230,7 +4234,7 @@
       <c r="A80" s="16">
         <v>72</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="37" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4238,7 +4242,7 @@
       <c r="A81" s="16">
         <v>73</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="37" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4246,7 +4250,7 @@
       <c r="A82" s="16">
         <v>74</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4254,7 +4258,7 @@
       <c r="A83" s="16">
         <v>75</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="2"/>
@@ -4263,7 +4267,7 @@
       <c r="A84" s="16">
         <v>76</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="37" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4271,7 +4275,7 @@
       <c r="A85" s="16">
         <v>77</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="37" t="s">
         <v>105</v>
       </c>
       <c r="E85" s="2"/>
@@ -4281,7 +4285,7 @@
         <v>78</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="37" t="s">
         <v>108</v>
       </c>
       <c r="E86" s="2"/>
@@ -4291,7 +4295,7 @@
         <v>79</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="37" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="2"/>
@@ -4303,7 +4307,7 @@
       <c r="C88" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="40" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4314,7 +4318,7 @@
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="40" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4322,7 +4326,7 @@
       <c r="A90" s="16">
         <v>82</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="37" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4330,13 +4334,13 @@
       <c r="A91" s="16">
         <v>83</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="37" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="37" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4344,7 +4348,7 @@
       <c r="A93" s="16">
         <v>84</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="37" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4352,7 +4356,7 @@
       <c r="A94" s="16">
         <v>85</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="40" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4360,15 +4364,15 @@
       <c r="A95" s="16">
         <v>86</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>87</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="37" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4376,7 +4380,7 @@
       <c r="A97" s="16">
         <v>88</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="40" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4397,9 +4401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,26 +4424,26 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4462,7 +4466,7 @@
       <c r="F3" t="s">
         <v>269</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -4488,20 +4492,20 @@
       <c r="F4" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="32" t="s">
         <v>303</v>
       </c>
       <c r="L4" t="s">
         <v>297</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4522,7 +4526,7 @@
       <c r="F5" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -4566,7 +4570,7 @@
       <c r="F6" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -4587,7 +4591,7 @@
       <c r="Q6" t="s">
         <v>285</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="33" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4610,7 +4614,7 @@
       <c r="F7" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -4628,7 +4632,7 @@
       <c r="Q7" t="s">
         <v>285</v>
       </c>
-      <c r="R7" s="37"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4649,7 +4653,7 @@
       <c r="F8" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -4675,7 +4679,7 @@
       <c r="F9" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -4701,7 +4705,7 @@
       <c r="F10" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -4727,19 +4731,19 @@
       <c r="F11" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="28" t="s">
         <v>282</v>
       </c>
       <c r="N11" t="s">
         <v>295</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="28" t="s">
         <v>283</v>
       </c>
       <c r="R11" t="s">
@@ -4765,7 +4769,7 @@
       <c r="F12" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -4777,7 +4781,7 @@
       <c r="M12" t="s">
         <v>278</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="31" t="s">
         <v>289</v>
       </c>
       <c r="P12" t="s">
@@ -4809,7 +4813,7 @@
       <c r="F13" t="s">
         <v>269</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -4821,7 +4825,7 @@
       <c r="M13" t="s">
         <v>278</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="31" t="s">
         <v>290</v>
       </c>
       <c r="P13" t="s">
@@ -4847,7 +4851,7 @@
       <c r="F14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -4888,7 +4892,7 @@
       <c r="F15" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -4914,7 +4918,7 @@
       <c r="F16" t="s">
         <v>268</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -4940,7 +4944,7 @@
       <c r="F17" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -4966,7 +4970,7 @@
       <c r="F18" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="30" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -4982,12 +4986,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="317">
   <si>
     <t>time for upload</t>
   </si>
@@ -1358,12 +1358,21 @@
   <si>
     <t xml:space="preserve"> -</t>
   </si>
+  <si>
+    <t>assigned and not linked</t>
+  </si>
+  <si>
+    <t>Assigned and linked</t>
+  </si>
+  <si>
+    <t>The assigned and linked with the QR Code the media not get the assigned QR Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1608,12 +1617,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1628,6 +1631,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1718,7 +1727,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1753,7 +1761,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1929,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1937,7 +1944,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -1961,7 +1968,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2065,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -2097,7 +2104,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2138,7 +2145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="75">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2224,7 +2231,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="60">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2275,7 +2282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2306,7 +2313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="60">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2342,7 +2349,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2394,7 +2401,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="60">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -2439,7 +2446,7 @@
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2485,7 +2492,7 @@
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -2516,7 +2523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -2555,7 +2562,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="120">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2582,7 +2589,7 @@
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2596,7 +2603,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2611,7 +2618,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2626,7 +2633,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2641,499 +2648,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:21">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:21">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:21">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:21">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:21">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:21">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:21">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:21">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:21">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:21">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:21">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:21">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:21">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:21">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:21">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:21">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:21">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:21">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:21">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3173,20 +3180,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="345">
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="240">
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3202,11 +3209,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="330">
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -3218,15 +3225,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25:F25"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3239,7 +3246,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>124</v>
       </c>
@@ -3268,23 +3275,23 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>245</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="75">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="34" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="17"/>
@@ -3292,14 +3299,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="17"/>
@@ -3307,204 +3314,204 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="35" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>150</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="90">
       <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>162</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="90">
       <c r="A20" s="16">
         <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="36" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="19"/>
@@ -3512,26 +3519,26 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="60">
       <c r="A21" s="16">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>165</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="60">
       <c r="A22" s="16"/>
       <c r="C22" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>243</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -3541,42 +3548,42 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="87" customHeight="1">
       <c r="A23" s="16">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="60">
       <c r="A24" s="16">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>167</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" s="16">
         <v>22</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="16"/>
@@ -3584,230 +3591,230 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="75">
       <c r="A26" s="16">
         <v>23</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>170</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="90">
       <c r="A27" s="16">
         <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75">
       <c r="A28" s="16">
         <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>198</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="120">
       <c r="A29" s="16">
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="135">
       <c r="A30" s="16">
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="34" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="120">
       <c r="A31" s="16">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="34" t="s">
         <v>209</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="90">
       <c r="A32" s="16">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="180">
       <c r="A33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="35" t="s">
         <v>248</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="105">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="35" t="s">
         <v>251</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="120">
       <c r="A35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="35" t="s">
         <v>254</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="35" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="180">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="35" t="s">
         <v>258</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="75">
       <c r="A39" s="16">
         <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="35" t="s">
         <v>175</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75">
       <c r="A40" s="16">
         <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="35" t="s">
         <v>174</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="75">
       <c r="A41" s="16">
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="35" t="s">
         <v>176</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="75">
       <c r="A42" s="16">
         <v>34</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="35" t="s">
         <v>179</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="90">
       <c r="A43" s="16">
         <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="37" t="s">
         <v>181</v>
       </c>
       <c r="E43" s="26"/>
@@ -3818,303 +3825,303 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75">
       <c r="A44" s="16">
         <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="35" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="60">
       <c r="A45" s="16">
         <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46" s="16">
         <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="35" t="s">
         <v>227</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="60">
       <c r="A47" s="16">
         <v>39</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="35" t="s">
         <v>228</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75">
       <c r="A48" s="16">
         <v>40</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="16">
         <v>41</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="60">
       <c r="A50" s="16">
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="35" t="s">
         <v>219</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="60">
       <c r="A51" s="16">
         <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="35" t="s">
         <v>237</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="75">
       <c r="A52" s="16">
         <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="35" t="s">
         <v>238</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45">
       <c r="A53" s="16">
         <v>45</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="35" t="s">
         <v>239</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="75">
       <c r="A54" s="16">
         <v>46</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="35" t="s">
         <v>240</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="60">
       <c r="A56" s="16">
         <v>48</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="35" t="s">
         <v>184</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="75">
       <c r="A57" s="16">
         <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="35" t="s">
         <v>186</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30">
       <c r="A58" s="16">
         <v>50</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30">
       <c r="A59" s="16">
         <v>51</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="35" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30">
       <c r="A60" s="16">
         <v>52</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="35" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30">
       <c r="A61" s="16">
         <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="35" t="s">
         <v>88</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30">
       <c r="A62" s="16">
         <v>54</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="35" t="s">
         <v>89</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="16">
         <v>55</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="35" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="16">
         <v>56</v>
       </c>
-      <c r="D64" s="37"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="16">
         <v>57</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="105">
       <c r="A66" s="16">
         <v>58</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="35" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="60">
       <c r="A67" s="16">
         <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="35" t="s">
         <v>188</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30">
       <c r="A68" s="16">
         <v>60</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="2"/>
@@ -4122,53 +4129,53 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="60">
       <c r="A69" s="16">
         <v>61</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="16">
         <v>62</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="35" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" s="16">
         <v>63</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="60">
       <c r="A72" s="16">
         <v>64</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="35" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="120">
       <c r="A73" s="16">
         <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="35" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="2"/>
@@ -4176,29 +4183,29 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="16">
         <v>66</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60">
       <c r="A75" s="16">
         <v>67</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="35" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="60">
       <c r="A76" s="16">
         <v>68</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="35" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="2"/>
@@ -4206,181 +4213,181 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30">
       <c r="A77" s="16">
         <v>69</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="16">
         <v>70</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="16">
         <v>71</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30">
       <c r="A80" s="16">
         <v>72</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="16">
         <v>73</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="16">
         <v>74</v>
       </c>
-      <c r="D82" s="40" t="s">
+      <c r="D82" s="38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="30">
       <c r="A83" s="16">
         <v>75</v>
       </c>
-      <c r="D83" s="37" t="s">
+      <c r="D83" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30">
       <c r="A84" s="16">
         <v>76</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="45">
       <c r="A85" s="16">
         <v>77</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="45">
       <c r="A86" s="16">
         <v>78</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="37" t="s">
+      <c r="D86" s="35" t="s">
         <v>108</v>
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30">
       <c r="A87" s="16">
         <v>79</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="37" t="s">
+      <c r="D87" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="60">
       <c r="A88" s="16">
         <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="D88" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="45">
       <c r="A89" s="16">
         <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="38" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="60">
       <c r="A90" s="16">
         <v>82</v>
       </c>
-      <c r="D90" s="37" t="s">
+      <c r="D90" s="35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="60">
       <c r="A91" s="16">
         <v>83</v>
       </c>
-      <c r="D91" s="37" t="s">
+      <c r="D91" s="35" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="60">
       <c r="A92" s="16"/>
-      <c r="D92" s="37" t="s">
+      <c r="D92" s="35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="90">
       <c r="A93" s="16">
         <v>84</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D93" s="35" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="16">
         <v>85</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="38" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="16">
         <v>86</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="38" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="30">
       <c r="A96" s="16">
         <v>87</v>
       </c>
-      <c r="D96" s="37" t="s">
+      <c r="D96" s="35" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="16">
         <v>88</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D97" s="38" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4398,15 +4405,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -4419,12 +4426,12 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
         <v>267</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="60">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4507,7 +4514,7 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
     </row>
-    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="75">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="60">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4591,11 +4598,11 @@
       <c r="Q6" t="s">
         <v>285</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4632,9 +4639,9 @@
       <c r="Q7" t="s">
         <v>285</v>
       </c>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4660,7 +4667,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4712,7 +4719,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4794,7 +4801,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="90">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4980,18 +4987,65 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="K19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -1608,12 +1608,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1628,6 +1622,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -3222,8 +3222,8 @@
   <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25:F25"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" activeCellId="1" sqref="A4 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,7 +3272,7 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>245</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -3284,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="34" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="17"/>
@@ -3299,7 +3299,7 @@
       <c r="C5" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="17"/>
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -3338,7 +3338,7 @@
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -3352,7 +3352,7 @@
       <c r="C9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="35" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3364,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3378,7 +3378,7 @@
       <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3392,7 +3392,7 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3406,7 +3406,7 @@
       <c r="C13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -3420,7 +3420,7 @@
       <c r="C14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3434,7 +3434,7 @@
       <c r="C15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3448,7 +3448,7 @@
       <c r="C16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -3462,7 +3462,7 @@
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -3476,7 +3476,7 @@
       <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>150</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3490,7 +3490,7 @@
       <c r="C19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>162</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3504,7 +3504,7 @@
       <c r="C20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="36" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="19"/>
@@ -3519,7 +3519,7 @@
       <c r="C21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>165</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -3531,7 +3531,7 @@
       <c r="C22" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>243</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -3548,7 +3548,7 @@
       <c r="C23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3562,7 +3562,7 @@
       <c r="C24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>167</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3576,7 +3576,7 @@
       <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="16"/>
@@ -3591,7 +3591,7 @@
       <c r="C26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>170</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3605,7 +3605,7 @@
       <c r="C27" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3619,7 +3619,7 @@
       <c r="C28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>198</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3633,7 +3633,7 @@
       <c r="C29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3647,7 +3647,7 @@
       <c r="C30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="34" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3661,7 +3661,7 @@
       <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="34" t="s">
         <v>209</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3675,7 +3675,7 @@
       <c r="C32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3687,7 +3687,7 @@
       <c r="C33" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="35" t="s">
         <v>248</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3697,7 +3697,7 @@
     <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="35" t="s">
         <v>251</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3709,7 +3709,7 @@
       <c r="C35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="35" t="s">
         <v>254</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3719,7 +3719,7 @@
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="35" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3729,7 +3729,7 @@
     <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="35" t="s">
         <v>258</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3740,7 +3740,7 @@
       <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="35" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       <c r="C39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="35" t="s">
         <v>175</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -3765,7 +3765,7 @@
       <c r="C40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="35" t="s">
         <v>174</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -3779,7 +3779,7 @@
       <c r="C41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="35" t="s">
         <v>176</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3793,7 +3793,7 @@
       <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="35" t="s">
         <v>179</v>
       </c>
       <c r="F42" s="20" t="s">
@@ -3807,7 +3807,7 @@
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="37" t="s">
         <v>181</v>
       </c>
       <c r="E43" s="26"/>
@@ -3825,7 +3825,7 @@
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="35" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       <c r="C45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3850,7 +3850,7 @@
       <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="35" t="s">
         <v>227</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -3864,7 +3864,7 @@
       <c r="C47" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="35" t="s">
         <v>228</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -3878,7 +3878,7 @@
       <c r="C48" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3889,7 +3889,7 @@
       <c r="A49" s="16">
         <v>41</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="2"/>
@@ -3901,7 +3901,7 @@
       <c r="C50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="35" t="s">
         <v>219</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3915,7 +3915,7 @@
       <c r="C51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="35" t="s">
         <v>237</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -3929,7 +3929,7 @@
       <c r="C52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="35" t="s">
         <v>238</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -3943,7 +3943,7 @@
       <c r="C53" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="35" t="s">
         <v>239</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -3957,7 +3957,7 @@
       <c r="C54" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="35" t="s">
         <v>240</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -3968,7 +3968,7 @@
       <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="2"/>
@@ -3980,7 +3980,7 @@
       <c r="C56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="35" t="s">
         <v>184</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -3994,7 +3994,7 @@
       <c r="C57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="35" t="s">
         <v>186</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -4008,7 +4008,7 @@
       <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
@@ -4020,7 +4020,7 @@
       <c r="C59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="35" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="2"/>
@@ -4032,7 +4032,7 @@
       <c r="C60" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="35" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="2"/>
@@ -4044,7 +4044,7 @@
       <c r="C61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="35" t="s">
         <v>88</v>
       </c>
       <c r="E61" s="2"/>
@@ -4056,7 +4056,7 @@
       <c r="C62" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="35" t="s">
         <v>89</v>
       </c>
       <c r="E62" s="2"/>
@@ -4065,7 +4065,7 @@
       <c r="A63" s="16">
         <v>55</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="35" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="2"/>
@@ -4074,14 +4074,14 @@
       <c r="A64" s="16">
         <v>56</v>
       </c>
-      <c r="D64" s="37"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>57</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="35" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       <c r="C67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="35" t="s">
         <v>188</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -4114,7 +4114,7 @@
       <c r="A68" s="16">
         <v>60</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="2"/>
@@ -4126,7 +4126,7 @@
       <c r="A69" s="16">
         <v>61</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E69" s="2"/>
@@ -4136,7 +4136,7 @@
       <c r="A70" s="16">
         <v>62</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="35" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="2"/>
@@ -4146,7 +4146,7 @@
       <c r="A71" s="16">
         <v>63</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F71" s="2"/>
@@ -4155,7 +4155,7 @@
       <c r="A72" s="16">
         <v>64</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="35" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="2"/>
@@ -4168,7 +4168,7 @@
       <c r="C73" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="35" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="2"/>
@@ -4181,7 +4181,7 @@
         <v>66</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
@@ -4189,7 +4189,7 @@
       <c r="A75" s="16">
         <v>67</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="35" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="2"/>
@@ -4198,7 +4198,7 @@
       <c r="A76" s="16">
         <v>68</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="35" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="2"/>
@@ -4210,7 +4210,7 @@
       <c r="A77" s="16">
         <v>69</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="35" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       <c r="A78" s="16">
         <v>70</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="35" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       <c r="A79" s="16">
         <v>71</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="38" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4234,7 +4234,7 @@
       <c r="A80" s="16">
         <v>72</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       <c r="A81" s="16">
         <v>73</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       <c r="A82" s="16">
         <v>74</v>
       </c>
-      <c r="D82" s="40" t="s">
+      <c r="D82" s="38" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       <c r="A83" s="16">
         <v>75</v>
       </c>
-      <c r="D83" s="37" t="s">
+      <c r="D83" s="35" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="2"/>
@@ -4267,7 +4267,7 @@
       <c r="A84" s="16">
         <v>76</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="35" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       <c r="A85" s="16">
         <v>77</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E85" s="2"/>
@@ -4285,7 +4285,7 @@
         <v>78</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="37" t="s">
+      <c r="D86" s="35" t="s">
         <v>108</v>
       </c>
       <c r="E86" s="2"/>
@@ -4295,7 +4295,7 @@
         <v>79</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="37" t="s">
+      <c r="D87" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="2"/>
@@ -4307,7 +4307,7 @@
       <c r="C88" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="D88" s="38" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="38" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       <c r="A90" s="16">
         <v>82</v>
       </c>
-      <c r="D90" s="37" t="s">
+      <c r="D90" s="35" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4334,13 +4334,13 @@
       <c r="A91" s="16">
         <v>83</v>
       </c>
-      <c r="D91" s="37" t="s">
+      <c r="D91" s="35" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
-      <c r="D92" s="37" t="s">
+      <c r="D92" s="35" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       <c r="A93" s="16">
         <v>84</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D93" s="35" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       <c r="A94" s="16">
         <v>85</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="38" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       <c r="A95" s="16">
         <v>86</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="38" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       <c r="A96" s="16">
         <v>87</v>
       </c>
-      <c r="D96" s="37" t="s">
+      <c r="D96" s="35" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       <c r="A97" s="16">
         <v>88</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D97" s="38" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       <c r="Q6" t="s">
         <v>285</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="39" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       <c r="Q7" t="s">
         <v>285</v>
       </c>
-      <c r="R7" s="33"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4986,12 +4986,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="292">
   <si>
     <t>time for upload</t>
   </si>
@@ -1216,69 +1216,6 @@
 </t>
   </si>
   <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>gps</t>
-  </si>
-  <si>
-    <t>dataconn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on </t>
-  </si>
-  <si>
-    <t>wd cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wd cache </t>
-  </si>
-  <si>
-    <t>Wifi</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>Fresh try</t>
-  </si>
-  <si>
-    <t>Mall is not detected</t>
-  </si>
-  <si>
-    <t>user has to go to google maps and his location must get updated on the device</t>
-  </si>
-  <si>
-    <t>mall media type menu retrival fast</t>
-  </si>
-  <si>
-    <t>media retrieval 10 -15sec</t>
-  </si>
-  <si>
-    <t>upload without linking checked</t>
-  </si>
-  <si>
-    <t>multiple medias linkingchecked</t>
-  </si>
-  <si>
-    <t>Even though gps and wifi is off, the location of the monitor is updated correctly and the location icon in both app and web shows updated</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>observations- fine</t>
-  </si>
-  <si>
-    <t>Result -fine</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>on saying auto link, it says identifying media, when it cannot locate a mall, the loading message just disappears without any message to user</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
@@ -1286,10 +1223,6 @@
   </si>
   <si>
     <t>with cache</t>
-  </si>
-  <si>
-    <t>not able to retrive the mall at all
-on saying auto link, it says identifying media, when it cannot locate a mall, the loading message just disappears without any message to user</t>
   </si>
   <si>
     <t>mall media type menu retrival fast, m
@@ -1542,7 +1475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1601,10 +1534,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3221,9 +3152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" activeCellId="1" sqref="A4 F8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,7 +3203,7 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>245</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -3284,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="17"/>
@@ -3299,7 +3230,7 @@
       <c r="C5" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="17"/>
@@ -3312,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -3324,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>111</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -3338,7 +3269,7 @@
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -3352,7 +3283,7 @@
       <c r="C9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -3364,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -3378,7 +3309,7 @@
       <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3392,7 +3323,7 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3406,7 +3337,7 @@
       <c r="C13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="33" t="s">
         <v>133</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -3420,7 +3351,7 @@
       <c r="C14" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3434,7 +3365,7 @@
       <c r="C15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3448,7 +3379,7 @@
       <c r="C16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -3462,7 +3393,7 @@
       <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -3476,7 +3407,7 @@
       <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>150</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3490,7 +3421,7 @@
       <c r="C19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>162</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3504,7 +3435,7 @@
       <c r="C20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="19"/>
@@ -3519,7 +3450,7 @@
       <c r="C21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>165</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -3531,7 +3462,7 @@
       <c r="C22" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="32" t="s">
         <v>243</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -3548,7 +3479,7 @@
       <c r="C23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="32" t="s">
         <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3562,7 +3493,7 @@
       <c r="C24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="32" t="s">
         <v>167</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3576,7 +3507,7 @@
       <c r="C25" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="32" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="16"/>
@@ -3591,7 +3522,7 @@
       <c r="C26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="32" t="s">
         <v>170</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3605,7 +3536,7 @@
       <c r="C27" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="32" t="s">
         <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3619,7 +3550,7 @@
       <c r="C28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>198</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3633,7 +3564,7 @@
       <c r="C29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="32" t="s">
         <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3647,7 +3578,7 @@
       <c r="C30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="32" t="s">
         <v>203</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3661,7 +3592,7 @@
       <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="32" t="s">
         <v>209</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3675,7 +3606,7 @@
       <c r="C32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="32" t="s">
         <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3687,7 +3618,7 @@
       <c r="C33" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>248</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3697,7 +3628,7 @@
     <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="33" t="s">
         <v>251</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3709,7 +3640,7 @@
       <c r="C35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="33" t="s">
         <v>254</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3719,7 +3650,7 @@
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="33" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3729,7 +3660,7 @@
     <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="33" t="s">
         <v>258</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3740,7 +3671,7 @@
       <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="33" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3751,7 +3682,7 @@
       <c r="C39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="33" t="s">
         <v>175</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -3765,7 +3696,7 @@
       <c r="C40" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="33" t="s">
         <v>174</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -3779,7 +3710,7 @@
       <c r="C41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="33" t="s">
         <v>176</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3793,7 +3724,7 @@
       <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>179</v>
       </c>
       <c r="F42" s="20" t="s">
@@ -3807,7 +3738,7 @@
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="35" t="s">
         <v>181</v>
       </c>
       <c r="E43" s="26"/>
@@ -3825,7 +3756,7 @@
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="33" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3836,7 +3767,7 @@
       <c r="C45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="33" t="s">
         <v>226</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3850,7 +3781,7 @@
       <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="33" t="s">
         <v>227</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -3864,7 +3795,7 @@
       <c r="C47" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="33" t="s">
         <v>228</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -3878,7 +3809,7 @@
       <c r="C48" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="33" t="s">
         <v>229</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3889,7 +3820,7 @@
       <c r="A49" s="16">
         <v>41</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="2"/>
@@ -3901,7 +3832,7 @@
       <c r="C50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="33" t="s">
         <v>219</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3915,7 +3846,7 @@
       <c r="C51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="33" t="s">
         <v>237</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -3929,7 +3860,7 @@
       <c r="C52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="33" t="s">
         <v>238</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -3943,7 +3874,7 @@
       <c r="C53" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="33" t="s">
         <v>239</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -3957,7 +3888,7 @@
       <c r="C54" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="33" t="s">
         <v>240</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -3968,7 +3899,7 @@
       <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F55" s="2"/>
@@ -3980,7 +3911,7 @@
       <c r="C56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="33" t="s">
         <v>184</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -3994,7 +3925,7 @@
       <c r="C57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="33" t="s">
         <v>186</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -4008,7 +3939,7 @@
       <c r="C58" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
@@ -4020,7 +3951,7 @@
       <c r="C59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="33" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="2"/>
@@ -4032,7 +3963,7 @@
       <c r="C60" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="2"/>
@@ -4044,7 +3975,7 @@
       <c r="C61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="33" t="s">
         <v>88</v>
       </c>
       <c r="E61" s="2"/>
@@ -4056,7 +3987,7 @@
       <c r="C62" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E62" s="2"/>
@@ -4065,7 +3996,7 @@
       <c r="A63" s="16">
         <v>55</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E63" s="2"/>
@@ -4074,14 +4005,14 @@
       <c r="A64" s="16">
         <v>56</v>
       </c>
-      <c r="D64" s="35"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>57</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4092,7 +4023,7 @@
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="33" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4103,7 +4034,7 @@
       <c r="C67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="33" t="s">
         <v>188</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -4114,7 +4045,7 @@
       <c r="A68" s="16">
         <v>60</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="33" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="2"/>
@@ -4126,7 +4057,7 @@
       <c r="A69" s="16">
         <v>61</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E69" s="2"/>
@@ -4136,7 +4067,7 @@
       <c r="A70" s="16">
         <v>62</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="33" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="2"/>
@@ -4146,7 +4077,7 @@
       <c r="A71" s="16">
         <v>63</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="33" t="s">
         <v>85</v>
       </c>
       <c r="F71" s="2"/>
@@ -4155,7 +4086,7 @@
       <c r="A72" s="16">
         <v>64</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E72" s="2"/>
@@ -4168,7 +4099,7 @@
       <c r="C73" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="2"/>
@@ -4181,7 +4112,7 @@
         <v>66</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="35"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
@@ -4189,7 +4120,7 @@
       <c r="A75" s="16">
         <v>67</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="33" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="2"/>
@@ -4198,7 +4129,7 @@
       <c r="A76" s="16">
         <v>68</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="33" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="2"/>
@@ -4210,7 +4141,7 @@
       <c r="A77" s="16">
         <v>69</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="33" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4218,7 +4149,7 @@
       <c r="A78" s="16">
         <v>70</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="33" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4226,7 +4157,7 @@
       <c r="A79" s="16">
         <v>71</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="36" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4234,7 +4165,7 @@
       <c r="A80" s="16">
         <v>72</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="33" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4242,7 +4173,7 @@
       <c r="A81" s="16">
         <v>73</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="33" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4250,7 +4181,7 @@
       <c r="A82" s="16">
         <v>74</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="36" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4258,7 +4189,7 @@
       <c r="A83" s="16">
         <v>75</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="2"/>
@@ -4267,7 +4198,7 @@
       <c r="A84" s="16">
         <v>76</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="33" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4275,7 +4206,7 @@
       <c r="A85" s="16">
         <v>77</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="33" t="s">
         <v>105</v>
       </c>
       <c r="E85" s="2"/>
@@ -4285,7 +4216,7 @@
         <v>78</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="33" t="s">
         <v>108</v>
       </c>
       <c r="E86" s="2"/>
@@ -4295,7 +4226,7 @@
         <v>79</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="33" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="2"/>
@@ -4307,7 +4238,7 @@
       <c r="C88" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="36" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4318,7 +4249,7 @@
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="36" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4326,7 +4257,7 @@
       <c r="A90" s="16">
         <v>82</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="33" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4334,13 +4265,13 @@
       <c r="A91" s="16">
         <v>83</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="33" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4348,7 +4279,7 @@
       <c r="A93" s="16">
         <v>84</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="33" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4356,7 +4287,7 @@
       <c r="A94" s="16">
         <v>85</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="36" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4364,7 +4295,7 @@
       <c r="A95" s="16">
         <v>86</v>
       </c>
-      <c r="D95" s="38" t="s">
+      <c r="D95" s="36" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4372,7 +4303,7 @@
       <c r="A96" s="16">
         <v>87</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="33" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4380,7 +4311,7 @@
       <c r="A97" s="16">
         <v>88</v>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="36" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4399,11 +4330,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K6:V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,7 +4369,7 @@
         <v>266</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>272</v>
@@ -4455,7 +4386,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
         <v>273</v>
@@ -4466,11 +4397,11 @@
       <c r="F3" t="s">
         <v>269</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -4481,7 +4412,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
         <v>273</v>
@@ -4492,20 +4423,15 @@
       <c r="F4" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="L4" t="s">
-        <v>297</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="I4" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4515,7 +4441,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>273</v>
@@ -4526,32 +4452,15 @@
       <c r="F5" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" t="s">
-        <v>265</v>
-      </c>
-      <c r="M5" t="s">
-        <v>278</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="P5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>273</v>
-      </c>
-      <c r="R5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4559,7 +4468,7 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
         <v>273</v>
@@ -4570,30 +4479,14 @@
       <c r="F6" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" t="s">
-        <v>279</v>
-      </c>
-      <c r="M6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="P6" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>285</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>288</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4603,7 +4496,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
         <v>273</v>
@@ -4614,25 +4507,13 @@
       <c r="F7" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="L7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q7" t="s">
         <v>285</v>
       </c>
-      <c r="R7" s="39"/>
+      <c r="R7" s="37"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4642,7 +4523,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
         <v>273</v>
@@ -4653,12 +4534,14 @@
       <c r="F8" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4668,7 +4551,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
         <v>273</v>
@@ -4679,12 +4562,13 @@
       <c r="F9" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4694,7 +4578,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
         <v>273</v>
@@ -4705,12 +4589,14 @@
       <c r="F10" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="R10" s="37"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4720,7 +4606,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D11" t="s">
         <v>269</v>
@@ -4731,34 +4617,23 @@
       <c r="F11" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="N11" t="s">
-        <v>295</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="R11" t="s">
-        <v>296</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R11" s="37"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
         <v>269</v>
@@ -4769,40 +4644,24 @@
       <c r="F12" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L12" t="s">
-        <v>265</v>
-      </c>
-      <c r="M12" t="s">
-        <v>278</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="P12" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>273</v>
-      </c>
-      <c r="R12" t="s">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="R12" s="37"/>
     </row>
     <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
         <v>273</v>
@@ -4813,34 +4672,20 @@
       <c r="F13" t="s">
         <v>269</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L13" t="s">
-        <v>279</v>
-      </c>
-      <c r="M13" t="s">
-        <v>278</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
         <v>273</v>
@@ -4851,37 +4696,24 @@
       <c r="F14" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L14" t="s">
-        <v>280</v>
-      </c>
-      <c r="M14" t="s">
-        <v>281</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="P14" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>285</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
         <v>273</v>
@@ -4892,22 +4724,23 @@
       <c r="F15" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>311</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="R15" s="37"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D16" t="s">
         <v>273</v>
@@ -4918,22 +4751,24 @@
       <c r="F16" t="s">
         <v>268</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D17" t="s">
         <v>273</v>
@@ -4944,22 +4779,23 @@
       <c r="F17" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
         <v>273</v>
@@ -4970,33 +4806,106 @@
       <c r="F18" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+        <v>285</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="R18" s="37"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="37"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+      <c r="R20" s="37"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="R21" s="37"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N22" s="3"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+      <c r="R24" s="37"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="37"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N26" s="3"/>
+      <c r="R26" s="37"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="37"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N28" s="3"/>
+      <c r="R28" s="37"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="37"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N30" s="3"/>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" s="37"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N32" s="3"/>
+      <c r="R32" s="37"/>
+    </row>
+    <row r="33" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="37"/>
+    </row>
+    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N34" s="3"/>
+      <c r="R34" s="37"/>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="37"/>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N36" s="3"/>
+      <c r="R36" s="37"/>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="R37" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="17">
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="D21:I21"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R20:R21"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D95">

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
   <si>
     <t>time for upload</t>
   </si>
@@ -1225,13 +1225,36 @@
     <t>with cache</t>
   </si>
   <si>
-    <t>mall media type menu retrival fast, m
-edia retrieval 10 -15sec
-Even though gps and wifi is off, the location of the monitor is updated correctly and the location icon in both app and web shows updated</t>
+    <t>working fine</t>
+  </si>
+  <si>
+    <t>Cannot retrieve 
+WIFI , GPS should be  enabled Mandatory (coz for gps to update ur location correctly it says wifi must be enabled)</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>medias retrieval takes a minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Assigned and linked</t>
+  </si>
+  <si>
+    <t>assigned and not linked</t>
+  </si>
+  <si>
+    <t>The assigned QR code is not replaced for media in the web application.</t>
   </si>
   <si>
     <r>
-      <t>not able to retrive the mall at all
+      <t>not able to retrieve the mall at all
 on selecting auto link,</t>
     </r>
     <r>
@@ -1257,46 +1280,107 @@
     </r>
   </si>
   <si>
+    <t>mall media type menu retrieval fast, m
+media retrieval 10 -15sec
+Even though gps and wifi is off, the location of the monitor is updated correctly and the location icon in both app and web shows updated</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mall is not detected
 user has to 
-1. go to google maps and his location must get updated on the device
+1. go to Google maps and his location must get updated on the device
 2. after that user has to logout and login the app for the mall media type menu to appear </t>
   </si>
   <si>
-    <t>working fine</t>
-  </si>
-  <si>
-    <t>Cannot retrieve 
-WIFI , GPS should be  enabled Mandatory (coz for gps to update ur location correctly it says wifi must be enabled)</t>
-  </si>
-  <si>
-    <t>cache</t>
-  </si>
-  <si>
-    <t>2g</t>
-  </si>
-  <si>
-    <t>On selecting auto option ….enable data connection messageappears</t>
+    <t>On selecting auto option ….enable data connection message appears</t>
   </si>
   <si>
     <t>user has to 
-1. go to google maps and his location must get updated on the device
+1. go to Google maps and his location must get updated on the device
 2. after that user has to logout and login the app for the mall media type menu to appear 
 Media type mall appears quickly
-Retrieval of medias take arnd 45 secs</t>
-  </si>
-  <si>
-    <t>medias retrieval takes a minute</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
+Retrieval of medias take around 45 secs</t>
+  </si>
+  <si>
+    <t>FIXED ON release version</t>
+  </si>
+  <si>
+    <t>Fixed on release version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The assigned QR code is not reflected in the Monitor Inbox in the web application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First try </t>
+  </si>
+  <si>
+    <t>The media assigned with the QR Code is linked in the web application(2nd time)</t>
+  </si>
+  <si>
+    <t>The web application not retrive the QR Code .</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>not connected</t>
+  </si>
+  <si>
+    <t>The web application takes the Qr code with the media</t>
+  </si>
+  <si>
+    <t>first try</t>
+  </si>
+  <si>
+    <t>unassigned</t>
+  </si>
+  <si>
+    <t>The monitor  is  uploaded</t>
+  </si>
+  <si>
+    <t>The monitor get uploaded with the location (WI FI takes the access point)</t>
+  </si>
+  <si>
+    <t>The monitor is uploaded  assigned with the Other Random QRCode(other account) , but not get uopdated in web app.</t>
+  </si>
+  <si>
+    <t>Assign a other place QR Code and upload(doubt)</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>The assigned QR code is not replicated in the monitor in the web app</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>First Try</t>
+  </si>
+  <si>
+    <t>The assigned Qr Code is not reolaced for the linked media in the web application</t>
+  </si>
+  <si>
+    <t>The QR Code is not displayed in the Web application(Inbox)</t>
+  </si>
+  <si>
+    <t>The Web application is not retrive the QR Code</t>
+  </si>
+  <si>
+    <t>The uploaded monitor is linked with the media in the web app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The monitor get uploaded with the location </t>
+  </si>
+  <si>
+    <t>The monitor is uploaded but GPS Location is not displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,6 +1439,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1475,7 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1557,7 +1647,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1649,7 +1742,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1684,7 +1776,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1860,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1868,7 +1959,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -1892,7 +1983,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1951,7 +2042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1989,7 +2080,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -2028,7 +2119,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2069,7 +2160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="75">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2105,7 +2196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2155,7 +2246,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="60">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2206,7 +2297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2237,7 +2328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="60">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2273,7 +2364,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2325,7 +2416,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="60">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -2370,7 +2461,7 @@
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2416,7 +2507,7 @@
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -2447,7 +2538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -2486,7 +2577,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="120">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2513,7 +2604,7 @@
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2527,7 +2618,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2542,7 +2633,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2557,7 +2648,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2572,499 +2663,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:21">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:21">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:21">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:21">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:21">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:21">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:21">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:21">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:21">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:21">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:21">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:21">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:21">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:21">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:21">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:21">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:21">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:21">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:21">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3104,20 +3195,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="345">
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3125,7 +3216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="240">
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3133,11 +3224,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="330">
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -3149,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3157,7 +3248,7 @@
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3170,7 +3261,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>124</v>
       </c>
@@ -3199,7 +3290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3210,7 +3301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="75">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -3223,7 +3314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3238,7 +3329,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3250,7 +3341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3262,7 +3353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3276,7 +3367,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3290,7 +3381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3302,7 +3393,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3316,7 +3407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3330,7 +3421,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3344,7 +3435,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3358,7 +3449,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3372,7 +3463,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3386,7 +3477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3400,7 +3491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="60">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3414,7 +3505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="90">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -3428,7 +3519,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="90">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -3443,7 +3534,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="60">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -3457,7 +3548,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="60">
       <c r="A22" s="16"/>
       <c r="C22" s="17" t="s">
         <v>242</v>
@@ -3472,7 +3563,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="87" customHeight="1">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -3486,7 +3577,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="60">
       <c r="A24" s="16">
         <v>21</v>
       </c>
@@ -3500,7 +3591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" s="16">
         <v>22</v>
       </c>
@@ -3515,7 +3606,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="75">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -3529,7 +3620,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="90">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -3543,7 +3634,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75">
       <c r="A28" s="16">
         <v>25</v>
       </c>
@@ -3557,7 +3648,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="120">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -3571,7 +3662,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="135">
       <c r="A30" s="16">
         <v>27</v>
       </c>
@@ -3585,7 +3676,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="120">
       <c r="A31" s="16">
         <v>28</v>
       </c>
@@ -3599,7 +3690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="90">
       <c r="A32" s="16">
         <v>29</v>
       </c>
@@ -3613,7 +3704,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="180">
       <c r="A33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>249</v>
@@ -3625,7 +3716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="105">
       <c r="A34" s="16"/>
       <c r="C34" s="2"/>
       <c r="D34" s="33" t="s">
@@ -3635,7 +3726,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="120">
       <c r="A35" s="16"/>
       <c r="C35" s="2" t="s">
         <v>253</v>
@@ -3647,7 +3738,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="33" t="s">
@@ -3657,7 +3748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="180">
       <c r="A37" s="16"/>
       <c r="C37" s="2"/>
       <c r="D37" s="33" t="s">
@@ -3667,7 +3758,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="16">
         <v>30</v>
       </c>
@@ -3675,7 +3766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="75">
       <c r="A39" s="16">
         <v>31</v>
       </c>
@@ -3689,7 +3780,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75">
       <c r="A40" s="16">
         <v>32</v>
       </c>
@@ -3703,7 +3794,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="75">
       <c r="A41" s="16">
         <v>33</v>
       </c>
@@ -3717,7 +3808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="75">
       <c r="A42" s="16">
         <v>34</v>
       </c>
@@ -3731,7 +3822,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="90">
       <c r="A43" s="16">
         <v>35</v>
       </c>
@@ -3749,7 +3840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75">
       <c r="A44" s="16">
         <v>36</v>
       </c>
@@ -3760,7 +3851,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="60">
       <c r="A45" s="16">
         <v>37</v>
       </c>
@@ -3774,7 +3865,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46" s="16">
         <v>38</v>
       </c>
@@ -3788,7 +3879,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="60">
       <c r="A47" s="16">
         <v>39</v>
       </c>
@@ -3802,7 +3893,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75">
       <c r="A48" s="16">
         <v>40</v>
       </c>
@@ -3816,7 +3907,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="16">
         <v>41</v>
       </c>
@@ -3825,7 +3916,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="60">
       <c r="A50" s="16">
         <v>42</v>
       </c>
@@ -3839,7 +3930,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="60">
       <c r="A51" s="16">
         <v>43</v>
       </c>
@@ -3853,7 +3944,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="75">
       <c r="A52" s="16">
         <v>44</v>
       </c>
@@ -3867,7 +3958,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45">
       <c r="A53" s="16">
         <v>45</v>
       </c>
@@ -3881,7 +3972,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="75">
       <c r="A54" s="16">
         <v>46</v>
       </c>
@@ -3895,7 +3986,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="16">
         <v>47</v>
       </c>
@@ -3904,7 +3995,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="60">
       <c r="A56" s="16">
         <v>48</v>
       </c>
@@ -3918,7 +4009,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="75">
       <c r="A57" s="16">
         <v>49</v>
       </c>
@@ -3932,7 +4023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30">
       <c r="A58" s="16">
         <v>50</v>
       </c>
@@ -3944,7 +4035,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30">
       <c r="A59" s="16">
         <v>51</v>
       </c>
@@ -3956,7 +4047,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30">
       <c r="A60" s="16">
         <v>52</v>
       </c>
@@ -3968,7 +4059,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30">
       <c r="A61" s="16">
         <v>53</v>
       </c>
@@ -3980,7 +4071,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30">
       <c r="A62" s="16">
         <v>54</v>
       </c>
@@ -3992,7 +4083,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="16">
         <v>55</v>
       </c>
@@ -4001,14 +4092,14 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="16">
         <v>56</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="16">
         <v>57</v>
       </c>
@@ -4016,7 +4107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="105">
       <c r="A66" s="16">
         <v>58</v>
       </c>
@@ -4027,7 +4118,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="60">
       <c r="A67" s="16">
         <v>59</v>
       </c>
@@ -4041,7 +4132,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30">
       <c r="A68" s="16">
         <v>60</v>
       </c>
@@ -4053,7 +4144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="60">
       <c r="A69" s="16">
         <v>61</v>
       </c>
@@ -4063,7 +4154,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="16">
         <v>62</v>
       </c>
@@ -4073,7 +4164,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" s="16">
         <v>63</v>
       </c>
@@ -4082,7 +4173,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="60">
       <c r="A72" s="16">
         <v>64</v>
       </c>
@@ -4092,7 +4183,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="120">
       <c r="A73" s="16">
         <v>65</v>
       </c>
@@ -4107,7 +4198,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="16">
         <v>66</v>
       </c>
@@ -4116,7 +4207,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60">
       <c r="A75" s="16">
         <v>67</v>
       </c>
@@ -4125,7 +4216,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="60">
       <c r="A76" s="16">
         <v>68</v>
       </c>
@@ -4137,7 +4228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30">
       <c r="A77" s="16">
         <v>69</v>
       </c>
@@ -4145,7 +4236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="16">
         <v>70</v>
       </c>
@@ -4153,7 +4244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="16">
         <v>71</v>
       </c>
@@ -4161,7 +4252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30">
       <c r="A80" s="16">
         <v>72</v>
       </c>
@@ -4169,7 +4260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="16">
         <v>73</v>
       </c>
@@ -4177,7 +4268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="16">
         <v>74</v>
       </c>
@@ -4185,7 +4276,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="30">
       <c r="A83" s="16">
         <v>75</v>
       </c>
@@ -4194,7 +4285,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30">
       <c r="A84" s="16">
         <v>76</v>
       </c>
@@ -4202,7 +4293,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="45">
       <c r="A85" s="16">
         <v>77</v>
       </c>
@@ -4211,7 +4302,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="45">
       <c r="A86" s="16">
         <v>78</v>
       </c>
@@ -4221,7 +4312,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30">
       <c r="A87" s="16">
         <v>79</v>
       </c>
@@ -4231,7 +4322,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="60">
       <c r="A88" s="16">
         <v>80</v>
       </c>
@@ -4242,7 +4333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="45">
       <c r="A89" s="16">
         <v>81</v>
       </c>
@@ -4253,7 +4344,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="60">
       <c r="A90" s="16">
         <v>82</v>
       </c>
@@ -4261,7 +4352,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="60">
       <c r="A91" s="16">
         <v>83</v>
       </c>
@@ -4269,13 +4360,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="60">
       <c r="A92" s="16"/>
       <c r="D92" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="90">
       <c r="A93" s="16">
         <v>84</v>
       </c>
@@ -4283,7 +4374,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="16">
         <v>85</v>
       </c>
@@ -4291,7 +4382,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="16">
         <v>86</v>
       </c>
@@ -4299,7 +4390,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="30">
       <c r="A96" s="16">
         <v>87</v>
       </c>
@@ -4307,7 +4398,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="16">
         <v>88</v>
       </c>
@@ -4329,15 +4420,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K6:V37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -4350,12 +4441,12 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
         <v>267</v>
       </c>
@@ -4378,7 +4469,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4401,10 +4492,10 @@
         <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4427,13 +4518,13 @@
         <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
     </row>
-    <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="75">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4456,11 +4547,11 @@
         <v>71</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4483,12 +4574,12 @@
         <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="R6" s="37"/>
-    </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" ht="45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4511,11 +4602,11 @@
         <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="R7" s="37"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4523,7 +4614,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
         <v>273</v>
@@ -4538,12 +4629,12 @@
         <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="R8" s="37"/>
-    </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" ht="45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4566,11 +4657,11 @@
         <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="R9" s="37"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4578,7 +4669,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
         <v>273</v>
@@ -4593,12 +4684,12 @@
         <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="R10" s="37"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4606,7 +4697,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
         <v>269</v>
@@ -4621,19 +4712,19 @@
         <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="R11" s="37"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
         <v>269</v>
@@ -4648,17 +4739,17 @@
         <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="R12" s="37"/>
-    </row>
-    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
         <v>279</v>
@@ -4676,16 +4767,16 @@
         <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="R13" s="37"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D14" t="s">
         <v>273</v>
@@ -4700,17 +4791,17 @@
         <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="R14" s="38"/>
+    </row>
+    <row r="15" spans="1:18" ht="90">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
         <v>279</v>
@@ -4728,19 +4819,19 @@
         <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="R15" s="37"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="R15" s="38"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
         <v>273</v>
@@ -4755,20 +4846,20 @@
         <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="R16" s="37"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="38"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D17" t="s">
         <v>273</v>
@@ -4783,16 +4874,16 @@
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="R17" s="37"/>
-    </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="R17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" ht="45">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
         <v>279</v>
@@ -4810,115 +4901,627 @@
         <v>71</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="R18" s="37"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R19" s="37"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18" ht="30">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="R20" s="37"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="R21" s="37"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N22" s="3"/>
-      <c r="R22" s="37"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N24" s="3"/>
-      <c r="R24" s="37"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R25" s="37"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N26" s="3"/>
-      <c r="R26" s="37"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R27" s="37"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N28" s="3"/>
-      <c r="R28" s="37"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R29" s="37"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N30" s="3"/>
-      <c r="R30" s="37"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R31" s="37"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N32" s="3"/>
-      <c r="R32" s="37"/>
-    </row>
-    <row r="33" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R33" s="37"/>
-    </row>
-    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N34" s="3"/>
-      <c r="R34" s="37"/>
-    </row>
-    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R35" s="37"/>
-    </row>
-    <row r="36" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N36" s="3"/>
-      <c r="R36" s="37"/>
-    </row>
-    <row r="37" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="R37" s="37"/>
+    <row r="21" spans="1:18" ht="30">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" ht="30">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:18" ht="30">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" ht="30">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="R29" s="38"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:18" ht="30">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="R32" s="38"/>
+    </row>
+    <row r="33" spans="1:18" ht="30">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="R33" s="38"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="R36" s="38"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>319</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
+  <mergeCells count="15">
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="D21:I21"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R29:R30"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D95">
-      <formula1>"On, Off"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22:E35 E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E38">
       <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G174 G19:G20 F3:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G173 F3:F20 G19:G20">
       <formula1>"ON, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H215 H3:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H214">
       <formula1>"Assigned and linked, assigned and not linked, unassigned"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D94">
+      <formula1>"On, Off"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="292">
   <si>
     <t>time for upload</t>
   </si>
@@ -1564,7 +1564,183 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3150,11 +3326,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I97"/>
+  <dimension ref="A2:I114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3341,7 @@
     <col min="4" max="4" width="64.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="4" customWidth="1"/>
     <col min="8" max="9" width="13.85546875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -3209,6 +3385,9 @@
       <c r="F3" s="16" t="s">
         <v>115</v>
       </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -3222,6 +3401,9 @@
       <c r="F4" s="17" t="s">
         <v>116</v>
       </c>
+      <c r="G4" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -3275,6 +3457,9 @@
       <c r="F8" s="17" t="s">
         <v>119</v>
       </c>
+      <c r="G8" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -3289,6 +3474,9 @@
       <c r="F9" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -3301,6 +3489,9 @@
       <c r="F10" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="G10" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -3315,6 +3506,9 @@
       <c r="F11" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="G11" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -3329,6 +3523,9 @@
       <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="G12" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -3343,6 +3540,9 @@
       <c r="F13" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="G13" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -3357,6 +3557,9 @@
       <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="G14" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -3371,6 +3574,9 @@
       <c r="F15" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="G15" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -3385,6 +3591,9 @@
       <c r="F16" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -3399,6 +3608,9 @@
       <c r="F17" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="G17" s="16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -3413,6 +3625,7 @@
       <c r="F18" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -3427,6 +3640,7 @@
       <c r="F19" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -3442,6 +3656,7 @@
       <c r="F20" s="18" t="s">
         <v>158</v>
       </c>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -3456,6 +3671,7 @@
       <c r="F21" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -3468,6 +3684,7 @@
       <c r="F22" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="4" t="s">
         <v>246</v>
       </c>
@@ -3485,6 +3702,7 @@
       <c r="F23" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -3499,6 +3717,7 @@
       <c r="F24" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -3514,6 +3733,7 @@
       <c r="F25" s="17" t="s">
         <v>164</v>
       </c>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -3528,6 +3748,7 @@
       <c r="F26" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -3542,6 +3763,7 @@
       <c r="F27" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -3556,6 +3778,7 @@
       <c r="F28" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -3570,6 +3793,7 @@
       <c r="F29" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -3584,6 +3808,7 @@
       <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -3598,6 +3823,7 @@
       <c r="F31" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -3612,6 +3838,7 @@
       <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
@@ -3624,6 +3851,7 @@
       <c r="F33" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
@@ -3634,6 +3862,7 @@
       <c r="F34" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
@@ -3646,6 +3875,7 @@
       <c r="F35" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
@@ -3656,6 +3886,7 @@
       <c r="F36" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
@@ -3666,6 +3897,7 @@
       <c r="F37" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -3674,6 +3906,7 @@
       <c r="D38" s="33" t="s">
         <v>95</v>
       </c>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -3688,6 +3921,7 @@
       <c r="F39" s="20" t="s">
         <v>173</v>
       </c>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -3702,6 +3936,7 @@
       <c r="F40" s="20" t="s">
         <v>173</v>
       </c>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -3716,6 +3951,7 @@
       <c r="F41" s="20" t="s">
         <v>173</v>
       </c>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -3730,6 +3966,7 @@
       <c r="F42" s="20" t="s">
         <v>173</v>
       </c>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -3745,9 +3982,7 @@
       <c r="F43" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
@@ -3759,6 +3994,7 @@
       <c r="D44" s="33" t="s">
         <v>225</v>
       </c>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -3773,6 +4009,7 @@
       <c r="F45" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
@@ -3787,6 +4024,7 @@
       <c r="F46" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
@@ -3801,6 +4039,7 @@
       <c r="F47" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -3815,8 +4054,9 @@
       <c r="F48" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>41</v>
       </c>
@@ -3824,8 +4064,9 @@
         <v>15</v>
       </c>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>42</v>
       </c>
@@ -3838,8 +4079,9 @@
       <c r="F50" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>43</v>
       </c>
@@ -3852,8 +4094,9 @@
       <c r="F51" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44</v>
       </c>
@@ -3866,8 +4109,9 @@
       <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>45</v>
       </c>
@@ -3880,8 +4124,9 @@
       <c r="F53" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>46</v>
       </c>
@@ -3894,8 +4139,9 @@
       <c r="F54" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>47</v>
       </c>
@@ -3903,8 +4149,9 @@
         <v>16</v>
       </c>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>48</v>
       </c>
@@ -3917,8 +4164,9 @@
       <c r="F56" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>49</v>
       </c>
@@ -3931,8 +4179,9 @@
       <c r="F57" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>50</v>
       </c>
@@ -3943,8 +4192,9 @@
         <v>86</v>
       </c>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>51</v>
       </c>
@@ -3955,8 +4205,9 @@
         <v>90</v>
       </c>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>52</v>
       </c>
@@ -3967,8 +4218,9 @@
         <v>87</v>
       </c>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>53</v>
       </c>
@@ -3979,8 +4231,9 @@
         <v>88</v>
       </c>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>54</v>
       </c>
@@ -3991,8 +4244,9 @@
         <v>89</v>
       </c>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>55</v>
       </c>
@@ -4000,23 +4254,26 @@
         <v>91</v>
       </c>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>56</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>57</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>58</v>
       </c>
@@ -4026,8 +4283,9 @@
       <c r="D66" s="33" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>59</v>
       </c>
@@ -4040,8 +4298,9 @@
       <c r="F67" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>60</v>
       </c>
@@ -4052,8 +4311,9 @@
       <c r="F68" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>61</v>
       </c>
@@ -4062,8 +4322,9 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>62</v>
       </c>
@@ -4072,8 +4333,9 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>63</v>
       </c>
@@ -4081,8 +4343,9 @@
         <v>85</v>
       </c>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>64</v>
       </c>
@@ -4091,8 +4354,9 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>65</v>
       </c>
@@ -4106,8 +4370,9 @@
       <c r="F73" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>66</v>
       </c>
@@ -4115,8 +4380,9 @@
       <c r="D74" s="33"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>67</v>
       </c>
@@ -4124,8 +4390,9 @@
         <v>94</v>
       </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>68</v>
       </c>
@@ -4136,56 +4403,63 @@
       <c r="F76" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>69</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>70</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>71</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>72</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>73</v>
       </c>
       <c r="D81" s="33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>74</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>75</v>
       </c>
@@ -4193,16 +4467,18 @@
         <v>102</v>
       </c>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>76</v>
       </c>
       <c r="D84" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>77</v>
       </c>
@@ -4210,8 +4486,9 @@
         <v>105</v>
       </c>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>78</v>
       </c>
@@ -4220,8 +4497,9 @@
         <v>108</v>
       </c>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>79</v>
       </c>
@@ -4230,8 +4508,9 @@
         <v>109</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>80</v>
       </c>
@@ -4241,8 +4520,9 @@
       <c r="D88" s="36" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>81</v>
       </c>
@@ -4252,74 +4532,159 @@
       <c r="D89" s="36" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>82</v>
       </c>
       <c r="D90" s="33" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>83</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="D92" s="33" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>84</v>
       </c>
       <c r="D93" s="33" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>85</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>86</v>
       </c>
       <c r="D95" s="36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>87</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>88</v>
       </c>
       <c r="D97" s="36" t="s">
         <v>218</v>
       </c>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="16"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="16"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I2"/>
+  <conditionalFormatting sqref="G3:G114">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula xml:space="preserve"> pass</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G114">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G110">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G79">
-      <formula1>"Pass, Fail, clarification"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G114">
+      <formula1>"Pass, Fail, not testable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4332,9 +4697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K6:V37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="330">
   <si>
     <t>time for upload</t>
   </si>
@@ -1374,6 +1374,36 @@
   </si>
   <si>
     <t>The monitor is uploaded but GPS Location is not displayed</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>The assigned QR Code with the media uploaded</t>
+  </si>
+  <si>
+    <t>The assigned QR Code is displayed in the Inbox</t>
+  </si>
+  <si>
+    <t>The assigned Qr code having a media linked is displayed in Inbox</t>
+  </si>
+  <si>
+    <t>The assigned Qr coded monitor uploaded and in web app QR Code linked media is linked.</t>
+  </si>
+  <si>
+    <t>Uploaded succsesfully</t>
+  </si>
+  <si>
+    <t>The monitor uploaded succssfully</t>
+  </si>
+  <si>
+    <t>Airplane mode</t>
+  </si>
+  <si>
+    <t>The monitor linked with the QR Code is uploaded</t>
+  </si>
+  <si>
+    <t>The monitor is uploaded</t>
   </si>
 </sst>
 </file>
@@ -1646,11 +1676,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3244,8 +3274,8 @@
   <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4421,11 +4451,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4577,7 +4607,7 @@
         <v>281</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="A7">
@@ -4604,7 +4634,7 @@
       <c r="I7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R7" s="38"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -4632,7 +4662,7 @@
         <v>281</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="45">
       <c r="A9">
@@ -4659,7 +4689,7 @@
       <c r="I9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
@@ -4687,7 +4717,7 @@
         <v>281</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
@@ -4714,7 +4744,7 @@
       <c r="I11" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
@@ -4742,7 +4772,7 @@
         <v>293</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="60">
       <c r="A13">
@@ -4769,7 +4799,7 @@
       <c r="I13" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R13" s="38"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
@@ -4794,7 +4824,7 @@
         <v>281</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" ht="90">
       <c r="A15">
@@ -4821,7 +4851,7 @@
       <c r="I15" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="R15" s="38"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -4849,7 +4879,7 @@
         <v>285</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="R16" s="38"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
@@ -4876,7 +4906,7 @@
       <c r="I17" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R17" s="38"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:18" ht="45">
       <c r="A18">
@@ -4904,7 +4934,7 @@
         <v>282</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="R18" s="38"/>
+      <c r="R18" s="39"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
@@ -4934,7 +4964,7 @@
       <c r="J19" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="R19" s="38"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="30">
       <c r="A20">
@@ -4993,7 +5023,7 @@
         <v>299</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="R21" s="38"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
@@ -5023,7 +5053,7 @@
       <c r="J22" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="R22" s="39"/>
     </row>
     <row r="23" spans="1:18" ht="30">
       <c r="A23">
@@ -5054,7 +5084,7 @@
         <v>295</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="38"/>
+      <c r="R23" s="39"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
@@ -5084,7 +5114,7 @@
       <c r="J24" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="R24" s="38"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
@@ -5108,11 +5138,11 @@
       <c r="H25" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="38" t="s">
         <v>303</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="R25" s="38"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
@@ -5136,10 +5166,10 @@
       <c r="H26" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="R26" s="38"/>
+      <c r="R26" s="39"/>
     </row>
     <row r="27" spans="1:18" ht="30">
       <c r="A27">
@@ -5163,11 +5193,11 @@
       <c r="H27" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="38" t="s">
         <v>307</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="R27" s="38"/>
+      <c r="R27" s="39"/>
     </row>
     <row r="28" spans="1:18" ht="30">
       <c r="A28">
@@ -5191,10 +5221,10 @@
       <c r="H28" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="R28" s="38"/>
+      <c r="R28" s="39"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
@@ -5218,11 +5248,11 @@
       <c r="H29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="38" t="s">
         <v>309</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="R29" s="38"/>
+      <c r="R29" s="39"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
@@ -5249,10 +5279,10 @@
       <c r="H30" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="R30" s="38"/>
+      <c r="R30" s="39"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
@@ -5279,11 +5309,11 @@
       <c r="H31" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="38" t="s">
         <v>311</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="R31" s="38"/>
+      <c r="R31" s="39"/>
     </row>
     <row r="32" spans="1:18" ht="30">
       <c r="A32">
@@ -5310,10 +5340,10 @@
       <c r="H32" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="R32" s="38"/>
+      <c r="R32" s="39"/>
     </row>
     <row r="33" spans="1:18" ht="30">
       <c r="A33">
@@ -5340,11 +5370,11 @@
       <c r="H33" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="38" t="s">
         <v>314</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="R33" s="38"/>
+      <c r="R33" s="39"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
@@ -5371,10 +5401,10 @@
       <c r="H34" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="R34" s="38"/>
+      <c r="R34" s="39"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
@@ -5387,7 +5417,7 @@
         <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
         <v>270</v>
@@ -5401,11 +5431,11 @@
       <c r="H35" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="38" t="s">
         <v>316</v>
       </c>
       <c r="N35" s="3"/>
-      <c r="R35" s="38"/>
+      <c r="R35" s="39"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
@@ -5432,10 +5462,10 @@
       <c r="H36" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="R36" s="38"/>
+      <c r="R36" s="39"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
@@ -5447,6 +5477,9 @@
       <c r="C37" t="s">
         <v>279</v>
       </c>
+      <c r="D37" t="s">
+        <v>273</v>
+      </c>
       <c r="E37" t="s">
         <v>270</v>
       </c>
@@ -5459,7 +5492,7 @@
       <c r="H37" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="38" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5474,7 +5507,7 @@
         <v>279</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
         <v>270</v>
@@ -5488,8 +5521,289 @@
       <c r="H38" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="38" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="38"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="1:18" ht="30">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" t="s">
+        <v>268</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" t="s">
+        <v>269</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5511,16 +5825,16 @@
     <mergeCell ref="R29:R30"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
       <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G173 F3:F20 G19:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G20 F3:F20 F21:G177">
       <formula1>"ON, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H214">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H218">
       <formula1>"Assigned and linked, assigned and not linked, unassigned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D98">
       <formula1>"On, Off"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-swetha.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="320">
   <si>
     <t>time for upload</t>
   </si>
@@ -1374,36 +1374,6 @@
   </si>
   <si>
     <t>The monitor is uploaded but GPS Location is not displayed</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>The assigned QR Code with the media uploaded</t>
-  </si>
-  <si>
-    <t>The assigned QR Code is displayed in the Inbox</t>
-  </si>
-  <si>
-    <t>The assigned Qr code having a media linked is displayed in Inbox</t>
-  </si>
-  <si>
-    <t>The assigned Qr coded monitor uploaded and in web app QR Code linked media is linked.</t>
-  </si>
-  <si>
-    <t>Uploaded succsesfully</t>
-  </si>
-  <si>
-    <t>The monitor uploaded succssfully</t>
-  </si>
-  <si>
-    <t>Airplane mode</t>
-  </si>
-  <si>
-    <t>The monitor linked with the QR Code is uploaded</t>
-  </si>
-  <si>
-    <t>The monitor is uploaded</t>
   </si>
 </sst>
 </file>
@@ -1676,11 +1646,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3274,8 +3244,8 @@
   <dimension ref="A2:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4451,11 +4421,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4607,7 +4577,7 @@
         <v>281</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="A7">
@@ -4634,7 +4604,7 @@
       <c r="I7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R7" s="39"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -4662,7 +4632,7 @@
         <v>281</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="R8" s="39"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:18" ht="45">
       <c r="A9">
@@ -4689,7 +4659,7 @@
       <c r="I9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R9" s="39"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
@@ -4717,7 +4687,7 @@
         <v>281</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="R10" s="39"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
@@ -4744,7 +4714,7 @@
       <c r="I11" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R11" s="39"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
@@ -4772,7 +4742,7 @@
         <v>293</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="R12" s="39"/>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:18" ht="60">
       <c r="A13">
@@ -4799,7 +4769,7 @@
       <c r="I13" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R13" s="39"/>
+      <c r="R13" s="38"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
@@ -4824,7 +4794,7 @@
         <v>281</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="R14" s="39"/>
+      <c r="R14" s="38"/>
     </row>
     <row r="15" spans="1:18" ht="90">
       <c r="A15">
@@ -4851,7 +4821,7 @@
       <c r="I15" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="R15" s="39"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -4879,7 +4849,7 @@
         <v>285</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="R16" s="39"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
@@ -4906,7 +4876,7 @@
       <c r="I17" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R17" s="39"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" ht="45">
       <c r="A18">
@@ -4934,7 +4904,7 @@
         <v>282</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="R18" s="39"/>
+      <c r="R18" s="38"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
@@ -4964,7 +4934,7 @@
       <c r="J19" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="R19" s="39"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18" ht="30">
       <c r="A20">
@@ -5023,7 +4993,7 @@
         <v>299</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="R21" s="39"/>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
@@ -5053,7 +5023,7 @@
       <c r="J22" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="R22" s="39"/>
+      <c r="R22" s="38"/>
     </row>
     <row r="23" spans="1:18" ht="30">
       <c r="A23">
@@ -5084,7 +5054,7 @@
         <v>295</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="39"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
@@ -5114,7 +5084,7 @@
       <c r="J24" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="R24" s="39"/>
+      <c r="R24" s="38"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
@@ -5138,11 +5108,11 @@
       <c r="H25" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="39" t="s">
         <v>303</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="R25" s="39"/>
+      <c r="R25" s="38"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
@@ -5166,10 +5136,10 @@
       <c r="H26" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="R26" s="39"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="1:18" ht="30">
       <c r="A27">
@@ -5193,11 +5163,11 @@
       <c r="H27" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="39" t="s">
         <v>307</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="R27" s="39"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" spans="1:18" ht="30">
       <c r="A28">
@@ -5221,10 +5191,10 @@
       <c r="H28" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="R28" s="39"/>
+      <c r="R28" s="38"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
@@ -5248,11 +5218,11 @@
       <c r="H29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="39" t="s">
         <v>309</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="R29" s="39"/>
+      <c r="R29" s="38"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
@@ -5279,10 +5249,10 @@
       <c r="H30" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="R30" s="39"/>
+      <c r="R30" s="38"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
@@ -5309,11 +5279,11 @@
       <c r="H31" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="39" t="s">
         <v>311</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="R31" s="39"/>
+      <c r="R31" s="38"/>
     </row>
     <row r="32" spans="1:18" ht="30">
       <c r="A32">
@@ -5340,10 +5310,10 @@
       <c r="H32" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="R32" s="39"/>
+      <c r="R32" s="38"/>
     </row>
     <row r="33" spans="1:18" ht="30">
       <c r="A33">
@@ -5370,11 +5340,11 @@
       <c r="H33" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="39" t="s">
         <v>314</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="R33" s="39"/>
+      <c r="R33" s="38"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
@@ -5401,10 +5371,10 @@
       <c r="H34" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="R34" s="39"/>
+      <c r="R34" s="38"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
@@ -5417,7 +5387,7 @@
         <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E35" t="s">
         <v>270</v>
@@ -5431,11 +5401,11 @@
       <c r="H35" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="39" t="s">
         <v>316</v>
       </c>
       <c r="N35" s="3"/>
-      <c r="R35" s="39"/>
+      <c r="R35" s="38"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
@@ -5462,10 +5432,10 @@
       <c r="H36" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="R36" s="39"/>
+      <c r="R36" s="38"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
@@ -5477,9 +5447,6 @@
       <c r="C37" t="s">
         <v>279</v>
       </c>
-      <c r="D37" t="s">
-        <v>273</v>
-      </c>
       <c r="E37" t="s">
         <v>270</v>
       </c>
@@ -5492,7 +5459,7 @@
       <c r="H37" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="38" t="s">
+      <c r="I37" s="39" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5507,7 +5474,7 @@
         <v>279</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
         <v>270</v>
@@ -5521,289 +5488,8 @@
       <c r="H38" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="I38" s="39" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="38"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>320</v>
-      </c>
-      <c r="C40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" t="s">
-        <v>270</v>
-      </c>
-      <c r="F40" t="s">
-        <v>268</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>320</v>
-      </c>
-      <c r="C41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" t="s">
-        <v>268</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" t="s">
-        <v>312</v>
-      </c>
-      <c r="D42" t="s">
-        <v>269</v>
-      </c>
-      <c r="E42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" t="s">
-        <v>279</v>
-      </c>
-      <c r="D43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="38"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:18" ht="30">
-      <c r="A47">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s">
-        <v>320</v>
-      </c>
-      <c r="C47" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" t="s">
-        <v>270</v>
-      </c>
-      <c r="F48" t="s">
-        <v>268</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>320</v>
-      </c>
-      <c r="C49" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" t="s">
-        <v>269</v>
-      </c>
-      <c r="E49" t="s">
-        <v>270</v>
-      </c>
-      <c r="F49" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C50" t="s">
-        <v>312</v>
-      </c>
-      <c r="D50" t="s">
-        <v>269</v>
-      </c>
-      <c r="E50" t="s">
-        <v>270</v>
-      </c>
-      <c r="F50" t="s">
-        <v>269</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" t="s">
-        <v>312</v>
-      </c>
-      <c r="D51" t="s">
-        <v>269</v>
-      </c>
-      <c r="E51" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" t="s">
-        <v>269</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5825,16 +5511,16 @@
     <mergeCell ref="R29:R30"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E38">
       <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G20 F3:F20 F21:G177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G173 F3:F20 G19:G20">
       <formula1>"ON, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H218">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H214">
       <formula1>"Assigned and linked, assigned and not linked, unassigned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D94">
       <formula1>"On, Off"</formula1>
     </dataValidation>
   </dataValidations>
